--- a/CodesTCC/TCC2-Abritta/Etapa3/tentativa3/PlanilhaNumerica.xlsx
+++ b/CodesTCC/TCC2-Abritta/Etapa3/tentativa3/PlanilhaNumerica.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="LgrL52B7EL0jYYNJyBGCi8FQlrK3K709CymPBIAYFWA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="agIWHkTOua8zuQAulz/atmbAVGB6iq1+8IzImucPMeI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Idade</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Kidscore</t>
-  </si>
-  <si>
-    <t>Padrão</t>
   </si>
   <si>
     <t>t2</t>
@@ -96,12 +93,10 @@
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,7 +351,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="25" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -420,9 +415,6 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -438,54 +430,51 @@
         <v>5.3</v>
       </c>
       <c r="E2" s="2">
-        <v>1.0</v>
+        <v>22.5</v>
       </c>
       <c r="F2" s="2">
-        <v>22.5</v>
+        <v>34.9</v>
       </c>
       <c r="G2" s="2">
-        <v>34.9</v>
+        <v>36.8</v>
       </c>
       <c r="H2" s="2">
-        <v>36.8</v>
+        <v>50.1</v>
       </c>
       <c r="I2" s="2">
-        <v>50.1</v>
+        <v>71.1</v>
       </c>
       <c r="J2" s="2">
-        <v>71.1</v>
+        <v>100.8</v>
       </c>
       <c r="K2" s="2">
-        <v>100.8</v>
+        <v>108.8</v>
       </c>
       <c r="L2" s="2">
-        <v>108.8</v>
+        <v>114.9</v>
       </c>
       <c r="M2" s="2">
-        <v>114.9</v>
+        <v>12.4</v>
       </c>
       <c r="N2" s="2">
-        <v>12.4</v>
+        <v>15.2</v>
       </c>
       <c r="O2" s="2">
-        <v>15.2</v>
+        <v>27.6</v>
       </c>
       <c r="P2" s="2">
-        <v>27.6</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.9</v>
+        <v>21.0</v>
       </c>
       <c r="R2" s="2">
-        <v>21.0</v>
+        <v>29.7</v>
       </c>
       <c r="S2" s="2">
-        <v>29.7</v>
+        <v>6.1</v>
       </c>
       <c r="T2" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="U2" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -503,54 +492,51 @@
         <v>4.9</v>
       </c>
       <c r="E3" s="2">
-        <v>1.0</v>
+        <v>25.5</v>
       </c>
       <c r="F3" s="2">
-        <v>25.5</v>
+        <v>36.3</v>
       </c>
       <c r="G3" s="2">
-        <v>36.3</v>
+        <v>37.1</v>
       </c>
       <c r="H3" s="2">
-        <v>37.1</v>
+        <v>50.7</v>
       </c>
       <c r="I3" s="2">
-        <v>50.7</v>
+        <v>55.1</v>
       </c>
       <c r="J3" s="2">
-        <v>55.1</v>
+        <v>102.4</v>
       </c>
       <c r="K3" s="2">
-        <v>102.4</v>
+        <v>107.6</v>
       </c>
       <c r="L3" s="2">
-        <v>107.6</v>
+        <v>118.8</v>
       </c>
       <c r="M3" s="2">
-        <v>118.8</v>
+        <v>10.8</v>
       </c>
       <c r="N3" s="2">
-        <v>10.8</v>
+        <v>14.4</v>
       </c>
       <c r="O3" s="2">
-        <v>14.4</v>
+        <v>25.2</v>
       </c>
       <c r="P3" s="2">
-        <v>25.2</v>
+        <v>0.8</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="R3" s="2">
-        <v>4.4</v>
+        <v>47.3</v>
       </c>
       <c r="S3" s="2">
-        <v>47.3</v>
+        <v>11.2</v>
       </c>
       <c r="T3" s="2">
-        <v>11.2</v>
-      </c>
-      <c r="U3" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -568,54 +554,51 @@
         <v>8.7</v>
       </c>
       <c r="E4" s="2">
-        <v>2.0</v>
+        <v>23.2</v>
       </c>
       <c r="F4" s="2">
-        <v>23.2</v>
+        <v>33.8</v>
       </c>
       <c r="G4" s="2">
-        <v>33.8</v>
+        <v>34.5</v>
       </c>
       <c r="H4" s="2">
-        <v>34.5</v>
+        <v>46.1</v>
       </c>
       <c r="I4" s="2">
-        <v>46.1</v>
+        <v>49.2</v>
       </c>
       <c r="J4" s="2">
-        <v>49.2</v>
+        <v>81.1</v>
       </c>
       <c r="K4" s="2">
-        <v>81.1</v>
+        <v>92.1</v>
       </c>
       <c r="L4" s="2">
-        <v>92.1</v>
+        <v>99.8</v>
       </c>
       <c r="M4" s="2">
-        <v>99.8</v>
+        <v>10.6</v>
       </c>
       <c r="N4" s="2">
-        <v>10.6</v>
+        <v>12.3</v>
       </c>
       <c r="O4" s="2">
-        <v>12.3</v>
+        <v>22.9</v>
       </c>
       <c r="P4" s="2">
-        <v>22.9</v>
+        <v>0.7</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="R4" s="2">
-        <v>3.1</v>
+        <v>31.9</v>
       </c>
       <c r="S4" s="2">
-        <v>31.9</v>
+        <v>7.7</v>
       </c>
       <c r="T4" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="U4" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -633,54 +616,51 @@
         <v>5.3</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>25.9</v>
       </c>
       <c r="F5" s="2">
-        <v>25.9</v>
+        <v>36.2</v>
       </c>
       <c r="G5" s="2">
-        <v>36.2</v>
+        <v>36.8</v>
       </c>
       <c r="H5" s="2">
-        <v>36.8</v>
+        <v>50.1</v>
       </c>
       <c r="I5" s="2">
-        <v>50.1</v>
+        <v>52.2</v>
       </c>
       <c r="J5" s="2">
-        <v>52.2</v>
+        <v>104.3</v>
       </c>
       <c r="K5" s="2">
-        <v>104.3</v>
+        <v>106.7</v>
       </c>
       <c r="L5" s="2">
-        <v>106.7</v>
+        <v>114.9</v>
       </c>
       <c r="M5" s="2">
-        <v>114.9</v>
+        <v>10.3</v>
       </c>
       <c r="N5" s="2">
-        <v>10.3</v>
+        <v>13.9</v>
       </c>
       <c r="O5" s="2">
-        <v>13.9</v>
+        <v>24.2</v>
       </c>
       <c r="P5" s="2">
-        <v>24.2</v>
+        <v>0.6</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="R5" s="2">
-        <v>2.1</v>
+        <v>52.1</v>
       </c>
       <c r="S5" s="2">
-        <v>52.1</v>
+        <v>8.2</v>
       </c>
       <c r="T5" s="2">
-        <v>8.2</v>
-      </c>
-      <c r="U5" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -698,54 +678,51 @@
         <v>9.2</v>
       </c>
       <c r="E6" s="2">
-        <v>1.0</v>
+        <v>24.1</v>
       </c>
       <c r="F6" s="2">
-        <v>24.1</v>
+        <v>34.0</v>
       </c>
       <c r="G6" s="2">
-        <v>34.0</v>
+        <v>34.2</v>
       </c>
       <c r="H6" s="2">
-        <v>34.2</v>
+        <v>45.9</v>
       </c>
       <c r="I6" s="2">
-        <v>45.9</v>
+        <v>58.2</v>
       </c>
       <c r="J6" s="2">
-        <v>58.2</v>
+        <v>76.5</v>
       </c>
       <c r="K6" s="2">
-        <v>76.5</v>
+        <v>90.2</v>
       </c>
       <c r="L6" s="2">
-        <v>90.2</v>
+        <v>95.9</v>
       </c>
       <c r="M6" s="2">
-        <v>95.9</v>
+        <v>9.9</v>
       </c>
       <c r="N6" s="2">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="O6" s="2">
-        <v>11.9</v>
+        <v>21.8</v>
       </c>
       <c r="P6" s="2">
-        <v>21.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.2</v>
+        <v>12.3</v>
       </c>
       <c r="R6" s="2">
-        <v>12.3</v>
+        <v>18.3</v>
       </c>
       <c r="S6" s="2">
-        <v>18.3</v>
+        <v>5.7</v>
       </c>
       <c r="T6" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="U6" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -763,54 +740,51 @@
         <v>8.5</v>
       </c>
       <c r="E7" s="2">
-        <v>1.0</v>
+        <v>22.8</v>
       </c>
       <c r="F7" s="2">
-        <v>22.8</v>
+        <v>33.1</v>
       </c>
       <c r="G7" s="2">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="H7" s="2">
-        <v>33.3</v>
+        <v>46.3</v>
       </c>
       <c r="I7" s="2">
-        <v>46.3</v>
+        <v>48.5</v>
       </c>
       <c r="J7" s="2">
-        <v>48.5</v>
+        <v>82.1</v>
       </c>
       <c r="K7" s="2">
-        <v>82.1</v>
+        <v>88.8</v>
       </c>
       <c r="L7" s="2">
-        <v>88.8</v>
+        <v>100.8</v>
       </c>
       <c r="M7" s="2">
-        <v>100.8</v>
+        <v>10.3</v>
       </c>
       <c r="N7" s="2">
-        <v>10.3</v>
+        <v>13.2</v>
       </c>
       <c r="O7" s="2">
-        <v>13.2</v>
+        <v>23.5</v>
       </c>
       <c r="P7" s="2">
-        <v>23.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="R7" s="2">
-        <v>2.2</v>
+        <v>33.6</v>
       </c>
       <c r="S7" s="2">
-        <v>33.6</v>
+        <v>12.0</v>
       </c>
       <c r="T7" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="U7" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -828,54 +802,51 @@
         <v>7.4</v>
       </c>
       <c r="E8" s="2">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F8" s="2">
-        <v>22.0</v>
+        <v>33.3</v>
       </c>
       <c r="G8" s="2">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="H8" s="2">
-        <v>33.6</v>
+        <v>47.9</v>
       </c>
       <c r="I8" s="2">
-        <v>47.9</v>
+        <v>49.6</v>
       </c>
       <c r="J8" s="2">
-        <v>49.6</v>
+        <v>93.3</v>
       </c>
       <c r="K8" s="2">
-        <v>93.3</v>
+        <v>102.1</v>
       </c>
       <c r="L8" s="2">
-        <v>102.1</v>
+        <v>109.1</v>
       </c>
       <c r="M8" s="2">
-        <v>109.1</v>
+        <v>11.3</v>
       </c>
       <c r="N8" s="2">
-        <v>11.3</v>
+        <v>14.6</v>
       </c>
       <c r="O8" s="2">
-        <v>14.6</v>
+        <v>25.9</v>
       </c>
       <c r="P8" s="2">
-        <v>25.9</v>
+        <v>0.3</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="R8" s="2">
-        <v>1.7</v>
+        <v>43.7</v>
       </c>
       <c r="S8" s="2">
-        <v>43.7</v>
+        <v>7.0</v>
       </c>
       <c r="T8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U8" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -893,54 +864,51 @@
         <v>5.0</v>
       </c>
       <c r="E9" s="2">
-        <v>1.0</v>
+        <v>23.1</v>
       </c>
       <c r="F9" s="2">
-        <v>23.1</v>
+        <v>33.8</v>
       </c>
       <c r="G9" s="2">
-        <v>33.8</v>
+        <v>34.6</v>
       </c>
       <c r="H9" s="2">
-        <v>34.6</v>
+        <v>46.1</v>
       </c>
       <c r="I9" s="2">
-        <v>46.1</v>
+        <v>54.0</v>
       </c>
       <c r="J9" s="2">
-        <v>54.0</v>
+        <v>91.5</v>
       </c>
       <c r="K9" s="2">
-        <v>91.5</v>
+        <v>105.9</v>
       </c>
       <c r="L9" s="2">
-        <v>105.9</v>
+        <v>118.6</v>
       </c>
       <c r="M9" s="2">
-        <v>118.6</v>
+        <v>10.7</v>
       </c>
       <c r="N9" s="2">
-        <v>10.7</v>
+        <v>12.3</v>
       </c>
       <c r="O9" s="2">
-        <v>12.3</v>
+        <v>23.0</v>
       </c>
       <c r="P9" s="2">
-        <v>23.0</v>
+        <v>0.8</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="R9" s="2">
-        <v>7.9</v>
+        <v>37.5</v>
       </c>
       <c r="S9" s="2">
-        <v>37.5</v>
+        <v>12.7</v>
       </c>
       <c r="T9" s="2">
-        <v>12.7</v>
-      </c>
-      <c r="U9" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -958,54 +926,51 @@
         <v>7.5</v>
       </c>
       <c r="E10" s="2">
-        <v>2.0</v>
+        <v>22.3</v>
       </c>
       <c r="F10" s="2">
-        <v>22.3</v>
+        <v>31.8</v>
       </c>
       <c r="G10" s="2">
         <v>31.8</v>
       </c>
       <c r="H10" s="2">
-        <v>31.8</v>
+        <v>44.3</v>
       </c>
       <c r="I10" s="2">
-        <v>44.3</v>
+        <v>45.2</v>
       </c>
       <c r="J10" s="2">
-        <v>45.2</v>
+        <v>80.7</v>
       </c>
       <c r="K10" s="2">
-        <v>80.7</v>
+        <v>88.9</v>
       </c>
       <c r="L10" s="2">
-        <v>88.9</v>
+        <v>95.5</v>
       </c>
       <c r="M10" s="2">
-        <v>95.5</v>
+        <v>9.5</v>
       </c>
       <c r="N10" s="2">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="O10" s="2">
-        <v>12.5</v>
+        <v>22.0</v>
       </c>
       <c r="P10" s="2">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="R10" s="2">
-        <v>0.9</v>
+        <v>35.5</v>
       </c>
       <c r="S10" s="2">
-        <v>35.5</v>
+        <v>6.6</v>
       </c>
       <c r="T10" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="U10" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1023,54 +988,51 @@
         <v>5.5</v>
       </c>
       <c r="E11" s="2">
-        <v>1.0</v>
+        <v>27.5</v>
       </c>
       <c r="F11" s="2">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="G11" s="2">
-        <v>38.5</v>
+        <v>39.9</v>
       </c>
       <c r="H11" s="2">
-        <v>39.9</v>
+        <v>53.6</v>
       </c>
       <c r="I11" s="2">
-        <v>53.6</v>
+        <v>57.9</v>
       </c>
       <c r="J11" s="2">
-        <v>57.9</v>
+        <v>93.8</v>
       </c>
       <c r="K11" s="2">
-        <v>93.8</v>
+        <v>99.8</v>
       </c>
       <c r="L11" s="2">
-        <v>99.8</v>
+        <v>112.0</v>
       </c>
       <c r="M11" s="2">
-        <v>112.0</v>
+        <v>11.0</v>
       </c>
       <c r="N11" s="2">
-        <v>11.0</v>
+        <v>15.1</v>
       </c>
       <c r="O11" s="2">
-        <v>15.1</v>
+        <v>26.1</v>
       </c>
       <c r="P11" s="2">
-        <v>26.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="R11" s="2">
-        <v>4.3</v>
+        <v>35.9</v>
       </c>
       <c r="S11" s="2">
-        <v>35.9</v>
+        <v>12.2</v>
       </c>
       <c r="T11" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="U11" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1088,54 +1050,51 @@
         <v>4.6</v>
       </c>
       <c r="E12" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>41.4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>56.1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>98.2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>112.5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>123.9</v>
+      </c>
+      <c r="M12" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="N12" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="O12" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="2">
         <v>2.0</v>
       </c>
-      <c r="F12" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>41.2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>41.4</v>
-      </c>
-      <c r="I12" s="2">
-        <v>56.1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>58.1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>98.2</v>
-      </c>
-      <c r="L12" s="2">
-        <v>112.5</v>
-      </c>
-      <c r="M12" s="2">
-        <v>123.9</v>
-      </c>
-      <c r="N12" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="O12" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="P12" s="2">
-        <v>28.6</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0.2</v>
-      </c>
       <c r="R12" s="2">
-        <v>2.0</v>
+        <v>40.1</v>
       </c>
       <c r="S12" s="2">
-        <v>40.1</v>
+        <v>11.4</v>
       </c>
       <c r="T12" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="U12" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1153,54 +1112,51 @@
         <v>1.8</v>
       </c>
       <c r="E13" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>36.1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>52.9</v>
+      </c>
+      <c r="J13" s="2">
+        <v>95.3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>114.1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>132.8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="N13" s="2">
         <v>1.0</v>
       </c>
-      <c r="F13" s="2">
-        <v>26.3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>36.1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>37.0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>37.1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>52.9</v>
-      </c>
-      <c r="K13" s="2">
-        <v>95.3</v>
-      </c>
-      <c r="L13" s="2">
-        <v>114.1</v>
-      </c>
-      <c r="M13" s="2">
-        <v>132.8</v>
-      </c>
-      <c r="N13" s="2">
-        <v>9.8</v>
-      </c>
       <c r="O13" s="2">
-        <v>1.0</v>
+        <v>10.8</v>
       </c>
       <c r="P13" s="2">
-        <v>10.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.9</v>
+        <v>15.8</v>
       </c>
       <c r="R13" s="2">
-        <v>15.8</v>
+        <v>42.4</v>
       </c>
       <c r="S13" s="2">
-        <v>42.4</v>
+        <v>18.7</v>
       </c>
       <c r="T13" s="2">
-        <v>18.7</v>
-      </c>
-      <c r="U13" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1218,54 +1174,51 @@
         <v>7.5</v>
       </c>
       <c r="E14" s="2">
-        <v>2.0</v>
+        <v>24.9</v>
       </c>
       <c r="F14" s="2">
-        <v>24.9</v>
+        <v>36.0</v>
       </c>
       <c r="G14" s="2">
-        <v>36.0</v>
+        <v>37.8</v>
       </c>
       <c r="H14" s="2">
-        <v>37.8</v>
+        <v>50.8</v>
       </c>
       <c r="I14" s="2">
-        <v>50.8</v>
+        <v>53.3</v>
       </c>
       <c r="J14" s="2">
-        <v>53.3</v>
+        <v>88.7</v>
       </c>
       <c r="K14" s="2">
-        <v>88.7</v>
+        <v>98.1</v>
       </c>
       <c r="L14" s="2">
-        <v>98.1</v>
+        <v>108.0</v>
       </c>
       <c r="M14" s="2">
-        <v>108.0</v>
+        <v>11.1</v>
       </c>
       <c r="N14" s="2">
-        <v>11.1</v>
+        <v>14.8</v>
       </c>
       <c r="O14" s="2">
-        <v>14.8</v>
+        <v>25.9</v>
       </c>
       <c r="P14" s="2">
-        <v>25.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="R14" s="2">
-        <v>2.5</v>
+        <v>35.4</v>
       </c>
       <c r="S14" s="2">
-        <v>35.4</v>
+        <v>9.9</v>
       </c>
       <c r="T14" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="U14" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1283,54 +1236,51 @@
         <v>4.3</v>
       </c>
       <c r="E15" s="2">
-        <v>2.0</v>
+        <v>25.1</v>
       </c>
       <c r="F15" s="2">
-        <v>25.1</v>
+        <v>37.1</v>
       </c>
       <c r="G15" s="2">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="H15" s="2">
-        <v>37.3</v>
+        <v>50.8</v>
       </c>
       <c r="I15" s="2">
-        <v>50.8</v>
+        <v>74.6</v>
       </c>
       <c r="J15" s="2">
-        <v>74.6</v>
+        <v>113.1</v>
       </c>
       <c r="K15" s="2">
-        <v>113.1</v>
+        <v>121.2</v>
       </c>
       <c r="L15" s="2">
-        <v>121.2</v>
+        <v>126.2</v>
       </c>
       <c r="M15" s="2">
-        <v>126.2</v>
+        <v>12.0</v>
       </c>
       <c r="N15" s="2">
-        <v>12.0</v>
+        <v>13.7</v>
       </c>
       <c r="O15" s="2">
-        <v>13.7</v>
+        <v>25.7</v>
       </c>
       <c r="P15" s="2">
-        <v>25.7</v>
+        <v>0.2</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.2</v>
+        <v>23.8</v>
       </c>
       <c r="R15" s="2">
-        <v>23.8</v>
+        <v>38.5</v>
       </c>
       <c r="S15" s="2">
-        <v>38.5</v>
+        <v>5.0</v>
       </c>
       <c r="T15" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="U15" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1348,54 +1298,51 @@
         <v>6.3</v>
       </c>
       <c r="E16" s="2">
-        <v>1.0</v>
+        <v>28.3</v>
       </c>
       <c r="F16" s="2">
-        <v>28.3</v>
+        <v>39.5</v>
       </c>
       <c r="G16" s="2">
-        <v>39.5</v>
+        <v>40.0</v>
       </c>
       <c r="H16" s="2">
-        <v>40.0</v>
+        <v>51.7</v>
       </c>
       <c r="I16" s="2">
-        <v>51.7</v>
+        <v>69.8</v>
       </c>
       <c r="J16" s="2">
-        <v>69.8</v>
+        <v>79.7</v>
       </c>
       <c r="K16" s="2">
-        <v>79.7</v>
+        <v>100.6</v>
       </c>
       <c r="L16" s="2">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="M16" s="2">
-        <v>100.7</v>
+        <v>11.2</v>
       </c>
       <c r="N16" s="2">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
       <c r="O16" s="2">
-        <v>12.2</v>
+        <v>23.4</v>
       </c>
       <c r="P16" s="2">
-        <v>23.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.5</v>
+        <v>18.1</v>
       </c>
       <c r="R16" s="2">
-        <v>18.1</v>
+        <v>9.9</v>
       </c>
       <c r="S16" s="2">
-        <v>9.9</v>
+        <v>0.1</v>
       </c>
       <c r="T16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="U16" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1413,54 +1360,51 @@
         <v>4.1</v>
       </c>
       <c r="E17" s="2">
-        <v>2.0</v>
+        <v>24.2</v>
       </c>
       <c r="F17" s="2">
-        <v>24.2</v>
+        <v>35.3</v>
       </c>
       <c r="G17" s="2">
-        <v>35.3</v>
+        <v>35.8</v>
       </c>
       <c r="H17" s="2">
-        <v>35.8</v>
+        <v>49.4</v>
       </c>
       <c r="I17" s="2">
-        <v>49.4</v>
+        <v>54.7</v>
       </c>
       <c r="J17" s="2">
-        <v>54.7</v>
+        <v>95.8</v>
       </c>
       <c r="K17" s="2">
-        <v>95.8</v>
+        <v>104.9</v>
       </c>
       <c r="L17" s="2">
-        <v>104.9</v>
+        <v>114.1</v>
       </c>
       <c r="M17" s="2">
-        <v>114.1</v>
+        <v>11.1</v>
       </c>
       <c r="N17" s="2">
-        <v>11.1</v>
+        <v>14.1</v>
       </c>
       <c r="O17" s="2">
-        <v>14.1</v>
+        <v>25.2</v>
       </c>
       <c r="P17" s="2">
-        <v>25.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="R17" s="2">
-        <v>5.3</v>
+        <v>41.1</v>
       </c>
       <c r="S17" s="2">
-        <v>41.1</v>
+        <v>9.2</v>
       </c>
       <c r="T17" s="2">
-        <v>9.2</v>
-      </c>
-      <c r="U17" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1478,54 +1422,51 @@
         <v>4.6</v>
       </c>
       <c r="E18" s="2">
-        <v>2.0</v>
+        <v>28.3</v>
       </c>
       <c r="F18" s="2">
-        <v>28.3</v>
+        <v>40.2</v>
       </c>
       <c r="G18" s="2">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="H18" s="2">
-        <v>40.4</v>
+        <v>55.0</v>
       </c>
       <c r="I18" s="2">
-        <v>55.0</v>
+        <v>55.9</v>
       </c>
       <c r="J18" s="2">
-        <v>55.9</v>
+        <v>88.8</v>
       </c>
       <c r="K18" s="2">
-        <v>88.8</v>
+        <v>111.2</v>
       </c>
       <c r="L18" s="2">
-        <v>111.2</v>
+        <v>122.5</v>
       </c>
       <c r="M18" s="2">
-        <v>122.5</v>
+        <v>11.9</v>
       </c>
       <c r="N18" s="2">
-        <v>11.9</v>
+        <v>14.8</v>
       </c>
       <c r="O18" s="2">
-        <v>14.8</v>
+        <v>26.7</v>
       </c>
       <c r="P18" s="2">
-        <v>26.7</v>
+        <v>0.2</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="R18" s="2">
-        <v>0.9</v>
+        <v>32.9</v>
       </c>
       <c r="S18" s="2">
-        <v>32.9</v>
+        <v>11.3</v>
       </c>
       <c r="T18" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="U18" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1543,54 +1484,51 @@
         <v>6.0</v>
       </c>
       <c r="E19" s="2">
-        <v>2.0</v>
+        <v>26.5</v>
       </c>
       <c r="F19" s="2">
-        <v>26.5</v>
+        <v>37.4</v>
       </c>
       <c r="G19" s="2">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="H19" s="2">
-        <v>37.6</v>
+        <v>50.3</v>
       </c>
       <c r="I19" s="2">
-        <v>50.3</v>
+        <v>53.7</v>
       </c>
       <c r="J19" s="2">
-        <v>53.7</v>
+        <v>92.3</v>
       </c>
       <c r="K19" s="2">
-        <v>92.3</v>
+        <v>97.1</v>
       </c>
       <c r="L19" s="2">
-        <v>97.1</v>
+        <v>108.9</v>
       </c>
       <c r="M19" s="2">
-        <v>108.9</v>
+        <v>10.9</v>
       </c>
       <c r="N19" s="2">
-        <v>10.9</v>
+        <v>12.9</v>
       </c>
       <c r="O19" s="2">
-        <v>12.9</v>
+        <v>23.8</v>
       </c>
       <c r="P19" s="2">
-        <v>23.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="R19" s="2">
-        <v>3.4</v>
+        <v>38.6</v>
       </c>
       <c r="S19" s="2">
-        <v>38.6</v>
+        <v>11.8</v>
       </c>
       <c r="T19" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="U19" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1608,54 +1546,51 @@
         <v>2.0</v>
       </c>
       <c r="E20" s="2">
-        <v>2.0</v>
+        <v>27.7</v>
       </c>
       <c r="F20" s="2">
-        <v>27.7</v>
+        <v>41.7</v>
       </c>
       <c r="G20" s="2">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="H20" s="2">
-        <v>41.9</v>
+        <v>57.7</v>
       </c>
       <c r="I20" s="2">
-        <v>57.7</v>
+        <v>60.3</v>
       </c>
       <c r="J20" s="2">
-        <v>60.3</v>
+        <v>105.0</v>
       </c>
       <c r="K20" s="2">
-        <v>105.0</v>
+        <v>112.1</v>
       </c>
       <c r="L20" s="2">
-        <v>112.1</v>
+        <v>133.4</v>
       </c>
       <c r="M20" s="2">
-        <v>133.4</v>
+        <v>14.0</v>
       </c>
       <c r="N20" s="2">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="O20" s="2">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="P20" s="2">
-        <v>30.0</v>
+        <v>0.2</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="R20" s="2">
-        <v>2.6</v>
+        <v>44.7</v>
       </c>
       <c r="S20" s="2">
-        <v>44.7</v>
+        <v>21.3</v>
       </c>
       <c r="T20" s="2">
-        <v>21.3</v>
-      </c>
-      <c r="U20" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1673,54 +1608,51 @@
         <v>4.9</v>
       </c>
       <c r="E21" s="2">
-        <v>1.0</v>
+        <v>23.2</v>
       </c>
       <c r="F21" s="2">
-        <v>23.2</v>
+        <v>33.5</v>
       </c>
       <c r="G21" s="2">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="H21" s="2">
-        <v>33.6</v>
+        <v>45.3</v>
       </c>
       <c r="I21" s="2">
-        <v>45.3</v>
+        <v>53.8</v>
       </c>
       <c r="J21" s="2">
-        <v>53.8</v>
+        <v>68.0</v>
       </c>
       <c r="K21" s="2">
-        <v>68.0</v>
+        <v>96.5</v>
       </c>
       <c r="L21" s="2">
-        <v>96.5</v>
+        <v>106.4</v>
       </c>
       <c r="M21" s="2">
-        <v>106.4</v>
+        <v>10.3</v>
       </c>
       <c r="N21" s="2">
-        <v>10.3</v>
+        <v>11.8</v>
       </c>
       <c r="O21" s="2">
-        <v>11.8</v>
+        <v>22.1</v>
       </c>
       <c r="P21" s="2">
-        <v>22.1</v>
+        <v>0.1</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.1</v>
+        <v>8.5</v>
       </c>
       <c r="R21" s="2">
-        <v>8.5</v>
+        <v>14.2</v>
       </c>
       <c r="S21" s="2">
-        <v>14.2</v>
+        <v>9.9</v>
       </c>
       <c r="T21" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="U21" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1738,54 +1670,51 @@
         <v>5.0</v>
       </c>
       <c r="E22" s="2">
-        <v>1.0</v>
+        <v>24.5</v>
       </c>
       <c r="F22" s="2">
-        <v>24.5</v>
+        <v>35.6</v>
       </c>
       <c r="G22" s="2">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="H22" s="2">
-        <v>35.9</v>
+        <v>48.9</v>
       </c>
       <c r="I22" s="2">
-        <v>48.9</v>
+        <v>65.0</v>
       </c>
       <c r="J22" s="2">
-        <v>65.0</v>
+        <v>72.0</v>
       </c>
       <c r="K22" s="2">
-        <v>72.0</v>
+        <v>90.1</v>
       </c>
       <c r="L22" s="2">
-        <v>90.1</v>
+        <v>105.5</v>
       </c>
       <c r="M22" s="2">
-        <v>105.5</v>
+        <v>11.1</v>
       </c>
       <c r="N22" s="2">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="O22" s="2">
-        <v>13.3</v>
+        <v>24.4</v>
       </c>
       <c r="P22" s="2">
-        <v>24.4</v>
+        <v>0.3</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.3</v>
+        <v>16.1</v>
       </c>
       <c r="R22" s="2">
-        <v>16.1</v>
+        <v>7.0</v>
       </c>
       <c r="S22" s="2">
-        <v>7.0</v>
+        <v>15.4</v>
       </c>
       <c r="T22" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="U22" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1803,54 +1732,51 @@
         <v>6.8</v>
       </c>
       <c r="E23" s="2">
-        <v>1.0</v>
+        <v>24.8</v>
       </c>
       <c r="F23" s="2">
-        <v>24.8</v>
+        <v>36.2</v>
       </c>
       <c r="G23" s="2">
         <v>36.2</v>
       </c>
       <c r="H23" s="2">
-        <v>36.2</v>
+        <v>49.6</v>
       </c>
       <c r="I23" s="2">
-        <v>49.6</v>
+        <v>51.5</v>
       </c>
       <c r="J23" s="2">
-        <v>51.5</v>
+        <v>89.1</v>
       </c>
       <c r="K23" s="2">
-        <v>89.1</v>
+        <v>97.5</v>
       </c>
       <c r="L23" s="2">
-        <v>97.5</v>
+        <v>102.0</v>
       </c>
       <c r="M23" s="2">
-        <v>102.0</v>
+        <v>11.4</v>
       </c>
       <c r="N23" s="2">
-        <v>11.4</v>
+        <v>13.4</v>
       </c>
       <c r="O23" s="2">
-        <v>13.4</v>
+        <v>24.8</v>
       </c>
       <c r="P23" s="2">
-        <v>24.8</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="2">
-        <v>0.0</v>
+        <v>1.9</v>
       </c>
       <c r="R23" s="2">
-        <v>1.9</v>
+        <v>37.6</v>
       </c>
       <c r="S23" s="2">
-        <v>37.6</v>
+        <v>4.5</v>
       </c>
       <c r="T23" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="U23" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1868,54 +1794,51 @@
         <v>6.5</v>
       </c>
       <c r="E24" s="2">
-        <v>2.0</v>
+        <v>27.1</v>
       </c>
       <c r="F24" s="2">
-        <v>27.1</v>
+        <v>37.8</v>
       </c>
       <c r="G24" s="2">
-        <v>37.8</v>
+        <v>38.0</v>
       </c>
       <c r="H24" s="2">
-        <v>38.0</v>
+        <v>50.0</v>
       </c>
       <c r="I24" s="2">
-        <v>50.0</v>
+        <v>52.8</v>
       </c>
       <c r="J24" s="2">
-        <v>52.8</v>
+        <v>78.4</v>
       </c>
       <c r="K24" s="2">
-        <v>78.4</v>
+        <v>96.3</v>
       </c>
       <c r="L24" s="2">
-        <v>96.3</v>
+        <v>105.0</v>
       </c>
       <c r="M24" s="2">
-        <v>105.0</v>
+        <v>10.7</v>
       </c>
       <c r="N24" s="2">
-        <v>10.7</v>
+        <v>12.2</v>
       </c>
       <c r="O24" s="2">
-        <v>12.2</v>
+        <v>22.9</v>
       </c>
       <c r="P24" s="2">
-        <v>22.9</v>
+        <v>0.2</v>
       </c>
       <c r="Q24" s="2">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="R24" s="2">
-        <v>2.8</v>
+        <v>25.6</v>
       </c>
       <c r="S24" s="2">
-        <v>25.6</v>
+        <v>8.7</v>
       </c>
       <c r="T24" s="2">
-        <v>8.7</v>
-      </c>
-      <c r="U24" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1933,54 +1856,51 @@
         <v>0.0</v>
       </c>
       <c r="E25" s="2">
-        <v>1.0</v>
+        <v>28.5</v>
       </c>
       <c r="F25" s="2">
-        <v>28.5</v>
+        <v>40.4</v>
       </c>
       <c r="G25" s="2">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="H25" s="2">
-        <v>40.9</v>
+        <v>55.5</v>
       </c>
       <c r="I25" s="2">
-        <v>55.5</v>
+        <v>59.6</v>
       </c>
       <c r="J25" s="2">
-        <v>59.6</v>
+        <v>85.0</v>
       </c>
       <c r="K25" s="2">
-        <v>85.0</v>
+        <v>93.2</v>
       </c>
       <c r="L25" s="2">
-        <v>93.2</v>
+        <v>98.0</v>
       </c>
       <c r="M25" s="2">
-        <v>98.0</v>
+        <v>11.9</v>
       </c>
       <c r="N25" s="2">
-        <v>11.9</v>
+        <v>15.1</v>
       </c>
       <c r="O25" s="2">
-        <v>15.1</v>
+        <v>27.0</v>
       </c>
       <c r="P25" s="2">
-        <v>27.0</v>
+        <v>0.5</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="R25" s="2">
-        <v>4.1</v>
+        <v>25.4</v>
       </c>
       <c r="S25" s="2">
-        <v>25.4</v>
+        <v>4.8</v>
       </c>
       <c r="T25" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="U25" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1998,54 +1918,51 @@
         <v>4.6</v>
       </c>
       <c r="E26" s="2">
-        <v>0.0</v>
+        <v>28.3</v>
       </c>
       <c r="F26" s="2">
-        <v>28.3</v>
+        <v>41.2</v>
       </c>
       <c r="G26" s="2">
-        <v>41.2</v>
+        <v>42.0</v>
       </c>
       <c r="H26" s="2">
         <v>42.0</v>
       </c>
       <c r="I26" s="2">
-        <v>42.0</v>
+        <v>87.4</v>
       </c>
       <c r="J26" s="2">
-        <v>87.4</v>
+        <v>104.5</v>
       </c>
       <c r="K26" s="2">
-        <v>104.5</v>
+        <v>113.7</v>
       </c>
       <c r="L26" s="2">
-        <v>113.7</v>
+        <v>117.5</v>
       </c>
       <c r="M26" s="2">
-        <v>117.5</v>
+        <v>12.9</v>
       </c>
       <c r="N26" s="2">
-        <v>12.9</v>
+        <v>0.8</v>
       </c>
       <c r="O26" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="P26" s="2">
         <v>0.8</v>
       </c>
-      <c r="P26" s="2">
-        <v>13.7</v>
-      </c>
       <c r="Q26" s="2">
-        <v>0.8</v>
+        <v>45.4</v>
       </c>
       <c r="R26" s="2">
-        <v>45.4</v>
+        <v>17.1</v>
       </c>
       <c r="S26" s="2">
-        <v>17.1</v>
+        <v>3.8</v>
       </c>
       <c r="T26" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="U26" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2063,54 +1980,51 @@
         <v>5.2</v>
       </c>
       <c r="E27" s="2">
-        <v>1.0</v>
+        <v>34.0</v>
       </c>
       <c r="F27" s="2">
-        <v>34.0</v>
+        <v>47.7</v>
       </c>
       <c r="G27" s="2">
-        <v>47.7</v>
+        <v>48.1</v>
       </c>
       <c r="H27" s="2">
-        <v>48.1</v>
+        <v>70.2</v>
       </c>
       <c r="I27" s="2">
-        <v>70.2</v>
+        <v>77.8</v>
       </c>
       <c r="J27" s="2">
-        <v>77.8</v>
+        <v>96.3</v>
       </c>
       <c r="K27" s="2">
-        <v>96.3</v>
+        <v>107.5</v>
       </c>
       <c r="L27" s="2">
-        <v>107.5</v>
+        <v>113.7</v>
       </c>
       <c r="M27" s="2">
-        <v>113.7</v>
+        <v>13.7</v>
       </c>
       <c r="N27" s="2">
-        <v>13.7</v>
+        <v>22.5</v>
       </c>
       <c r="O27" s="2">
-        <v>22.5</v>
+        <v>36.2</v>
       </c>
       <c r="P27" s="2">
-        <v>36.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q27" s="2">
-        <v>0.4</v>
+        <v>7.6</v>
       </c>
       <c r="R27" s="2">
-        <v>7.6</v>
+        <v>18.5</v>
       </c>
       <c r="S27" s="2">
-        <v>18.5</v>
+        <v>6.2</v>
       </c>
       <c r="T27" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="U27" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2128,54 +2042,51 @@
         <v>7.6</v>
       </c>
       <c r="E28" s="2">
-        <v>1.0</v>
+        <v>31.4</v>
       </c>
       <c r="F28" s="2">
-        <v>31.4</v>
+        <v>43.8</v>
       </c>
       <c r="G28" s="2">
-        <v>43.8</v>
+        <v>44.0</v>
       </c>
       <c r="H28" s="2">
-        <v>44.0</v>
+        <v>58.6</v>
       </c>
       <c r="I28" s="2">
-        <v>58.6</v>
+        <v>61.8</v>
       </c>
       <c r="J28" s="2">
-        <v>61.8</v>
+        <v>69.5</v>
       </c>
       <c r="K28" s="2">
-        <v>69.5</v>
+        <v>100.3</v>
       </c>
       <c r="L28" s="2">
-        <v>100.3</v>
+        <v>109.0</v>
       </c>
       <c r="M28" s="2">
-        <v>109.0</v>
+        <v>12.4</v>
       </c>
       <c r="N28" s="2">
-        <v>12.4</v>
+        <v>14.8</v>
       </c>
       <c r="O28" s="2">
-        <v>14.8</v>
+        <v>27.2</v>
       </c>
       <c r="P28" s="2">
-        <v>27.2</v>
+        <v>0.2</v>
       </c>
       <c r="Q28" s="2">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="R28" s="2">
-        <v>3.2</v>
+        <v>7.7</v>
       </c>
       <c r="S28" s="2">
-        <v>7.7</v>
+        <v>8.7</v>
       </c>
       <c r="T28" s="2">
-        <v>8.7</v>
-      </c>
-      <c r="U28" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2193,54 +2104,51 @@
         <v>5.7</v>
       </c>
       <c r="E29" s="2">
-        <v>1.0</v>
+        <v>23.7</v>
       </c>
       <c r="F29" s="2">
-        <v>23.7</v>
+        <v>34.3</v>
       </c>
       <c r="G29" s="2">
-        <v>34.3</v>
+        <v>36.6</v>
       </c>
       <c r="H29" s="2">
-        <v>36.6</v>
+        <v>49.1</v>
       </c>
       <c r="I29" s="2">
-        <v>49.1</v>
+        <v>50.7</v>
       </c>
       <c r="J29" s="2">
-        <v>50.7</v>
+        <v>89.5</v>
       </c>
       <c r="K29" s="2">
-        <v>89.5</v>
+        <v>101.3</v>
       </c>
       <c r="L29" s="2">
-        <v>101.3</v>
+        <v>110.4</v>
       </c>
       <c r="M29" s="2">
-        <v>110.4</v>
+        <v>10.6</v>
       </c>
       <c r="N29" s="2">
-        <v>10.6</v>
+        <v>14.8</v>
       </c>
       <c r="O29" s="2">
-        <v>14.8</v>
+        <v>25.4</v>
       </c>
       <c r="P29" s="2">
-        <v>25.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q29" s="2">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="R29" s="2">
-        <v>1.6</v>
+        <v>38.8</v>
       </c>
       <c r="S29" s="2">
-        <v>38.8</v>
+        <v>9.1</v>
       </c>
       <c r="T29" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="U29" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2258,54 +2166,51 @@
         <v>4.6</v>
       </c>
       <c r="E30" s="2">
-        <v>1.0</v>
+        <v>28.4</v>
       </c>
       <c r="F30" s="2">
-        <v>28.4</v>
+        <v>41.4</v>
       </c>
       <c r="G30" s="2">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="H30" s="2">
-        <v>41.5</v>
+        <v>54.8</v>
       </c>
       <c r="I30" s="2">
-        <v>54.8</v>
+        <v>57.1</v>
       </c>
       <c r="J30" s="2">
-        <v>57.1</v>
+        <v>98.9</v>
       </c>
       <c r="K30" s="2">
-        <v>98.9</v>
+        <v>113.4</v>
       </c>
       <c r="L30" s="2">
-        <v>113.4</v>
+        <v>127.3</v>
       </c>
       <c r="M30" s="2">
-        <v>127.3</v>
+        <v>13.0</v>
       </c>
       <c r="N30" s="2">
-        <v>13.0</v>
+        <v>13.4</v>
       </c>
       <c r="O30" s="2">
-        <v>13.4</v>
+        <v>26.4</v>
       </c>
       <c r="P30" s="2">
-        <v>26.4</v>
+        <v>0.1</v>
       </c>
       <c r="Q30" s="2">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="R30" s="2">
-        <v>2.3</v>
+        <v>41.8</v>
       </c>
       <c r="S30" s="2">
-        <v>41.8</v>
+        <v>13.9</v>
       </c>
       <c r="T30" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="U30" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2323,54 +2228,51 @@
         <v>8.0</v>
       </c>
       <c r="E31" s="2">
-        <v>2.0</v>
+        <v>23.1</v>
       </c>
       <c r="F31" s="2">
-        <v>23.1</v>
+        <v>33.0</v>
       </c>
       <c r="G31" s="2">
-        <v>33.0</v>
+        <v>33.1</v>
       </c>
       <c r="H31" s="2">
-        <v>33.1</v>
+        <v>43.5</v>
       </c>
       <c r="I31" s="2">
-        <v>43.5</v>
+        <v>45.6</v>
       </c>
       <c r="J31" s="2">
-        <v>45.6</v>
+        <v>71.6</v>
       </c>
       <c r="K31" s="2">
-        <v>71.6</v>
+        <v>83.8</v>
       </c>
       <c r="L31" s="2">
-        <v>83.8</v>
+        <v>93.3</v>
       </c>
       <c r="M31" s="2">
-        <v>93.3</v>
+        <v>9.9</v>
       </c>
       <c r="N31" s="2">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="O31" s="2">
-        <v>10.5</v>
+        <v>20.4</v>
       </c>
       <c r="P31" s="2">
-        <v>20.4</v>
+        <v>0.1</v>
       </c>
       <c r="Q31" s="2">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="R31" s="2">
-        <v>2.1</v>
+        <v>26.0</v>
       </c>
       <c r="S31" s="2">
-        <v>26.0</v>
+        <v>9.5</v>
       </c>
       <c r="T31" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="U31" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2388,54 +2290,51 @@
         <v>6.7</v>
       </c>
       <c r="E32" s="2">
-        <v>0.0</v>
+        <v>27.9</v>
       </c>
       <c r="F32" s="2">
-        <v>27.9</v>
+        <v>38.8</v>
       </c>
       <c r="G32" s="2">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="H32" s="2">
-        <v>39.3</v>
+        <v>51.0</v>
       </c>
       <c r="I32" s="2">
-        <v>51.0</v>
+        <v>67.8</v>
       </c>
       <c r="J32" s="2">
-        <v>67.8</v>
+        <v>87.8</v>
       </c>
       <c r="K32" s="2">
-        <v>87.8</v>
+        <v>92.2</v>
       </c>
       <c r="L32" s="2">
-        <v>92.2</v>
+        <v>103.8</v>
       </c>
       <c r="M32" s="2">
-        <v>103.8</v>
+        <v>10.9</v>
       </c>
       <c r="N32" s="2">
-        <v>10.9</v>
+        <v>12.2</v>
       </c>
       <c r="O32" s="2">
-        <v>12.2</v>
+        <v>23.1</v>
       </c>
       <c r="P32" s="2">
-        <v>23.1</v>
+        <v>0.5</v>
       </c>
       <c r="Q32" s="2">
-        <v>0.5</v>
+        <v>16.8</v>
       </c>
       <c r="R32" s="2">
-        <v>16.8</v>
+        <v>20.0</v>
       </c>
       <c r="S32" s="2">
-        <v>20.0</v>
+        <v>11.6</v>
       </c>
       <c r="T32" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="U32" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2453,54 +2352,51 @@
         <v>4.5</v>
       </c>
       <c r="E33" s="2">
-        <v>1.0</v>
+        <v>24.2</v>
       </c>
       <c r="F33" s="2">
-        <v>24.2</v>
+        <v>34.4</v>
       </c>
       <c r="G33" s="2">
-        <v>34.4</v>
+        <v>35.1</v>
       </c>
       <c r="H33" s="2">
-        <v>35.1</v>
+        <v>45.8</v>
       </c>
       <c r="I33" s="2">
-        <v>45.8</v>
+        <v>47.1</v>
       </c>
       <c r="J33" s="2">
-        <v>47.1</v>
+        <v>80.9</v>
       </c>
       <c r="K33" s="2">
-        <v>80.9</v>
+        <v>100.2</v>
       </c>
       <c r="L33" s="2">
-        <v>100.2</v>
+        <v>111.5</v>
       </c>
       <c r="M33" s="2">
-        <v>111.5</v>
+        <v>10.2</v>
       </c>
       <c r="N33" s="2">
-        <v>10.2</v>
+        <v>11.4</v>
       </c>
       <c r="O33" s="2">
-        <v>11.4</v>
+        <v>21.6</v>
       </c>
       <c r="P33" s="2">
-        <v>21.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q33" s="2">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="R33" s="2">
-        <v>1.3</v>
+        <v>33.8</v>
       </c>
       <c r="S33" s="2">
-        <v>33.8</v>
+        <v>11.3</v>
       </c>
       <c r="T33" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="U33" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2518,54 +2414,51 @@
         <v>2.6</v>
       </c>
       <c r="E34" s="2">
-        <v>1.0</v>
+        <v>26.3</v>
       </c>
       <c r="F34" s="2">
-        <v>26.3</v>
+        <v>28.2</v>
       </c>
       <c r="G34" s="2">
-        <v>28.2</v>
+        <v>38.6</v>
       </c>
       <c r="H34" s="2">
-        <v>38.6</v>
+        <v>39.8</v>
       </c>
       <c r="I34" s="2">
-        <v>39.8</v>
+        <v>55.6</v>
       </c>
       <c r="J34" s="2">
-        <v>55.6</v>
+        <v>100.2</v>
       </c>
       <c r="K34" s="2">
-        <v>100.2</v>
+        <v>111.3</v>
       </c>
       <c r="L34" s="2">
-        <v>111.3</v>
+        <v>124.9</v>
       </c>
       <c r="M34" s="2">
-        <v>124.9</v>
+        <v>1.9</v>
       </c>
       <c r="N34" s="2">
-        <v>1.9</v>
+        <v>11.6</v>
       </c>
       <c r="O34" s="2">
-        <v>11.6</v>
+        <v>13.5</v>
       </c>
       <c r="P34" s="2">
-        <v>13.5</v>
+        <v>10.4</v>
       </c>
       <c r="Q34" s="2">
-        <v>10.4</v>
+        <v>15.8</v>
       </c>
       <c r="R34" s="2">
-        <v>15.8</v>
+        <v>44.6</v>
       </c>
       <c r="S34" s="2">
-        <v>44.6</v>
+        <v>13.6</v>
       </c>
       <c r="T34" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="U34" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2583,54 +2476,51 @@
         <v>2.6</v>
       </c>
       <c r="E35" s="2">
-        <v>2.0</v>
+        <v>25.0</v>
       </c>
       <c r="F35" s="2">
-        <v>25.0</v>
+        <v>39.8</v>
       </c>
       <c r="G35" s="2">
-        <v>39.8</v>
+        <v>42.3</v>
       </c>
       <c r="H35" s="2">
-        <v>42.3</v>
+        <v>53.0</v>
       </c>
       <c r="I35" s="2">
-        <v>53.0</v>
+        <v>54.4</v>
       </c>
       <c r="J35" s="2">
-        <v>54.4</v>
+        <v>88.9</v>
       </c>
       <c r="K35" s="2">
-        <v>88.9</v>
+        <v>127.7</v>
       </c>
       <c r="L35" s="2">
-        <v>127.7</v>
+        <v>138.1</v>
       </c>
       <c r="M35" s="2">
-        <v>138.1</v>
+        <v>14.8</v>
       </c>
       <c r="N35" s="2">
-        <v>14.8</v>
+        <v>13.2</v>
       </c>
       <c r="O35" s="2">
-        <v>13.2</v>
+        <v>28.0</v>
       </c>
       <c r="P35" s="2">
-        <v>28.0</v>
+        <v>2.5</v>
       </c>
       <c r="Q35" s="2">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="R35" s="2">
-        <v>1.4</v>
+        <v>34.5</v>
       </c>
       <c r="S35" s="2">
-        <v>34.5</v>
+        <v>10.4</v>
       </c>
       <c r="T35" s="2">
-        <v>10.4</v>
-      </c>
-      <c r="U35" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2648,54 +2538,51 @@
         <v>6.4</v>
       </c>
       <c r="E36" s="2">
-        <v>2.0</v>
+        <v>24.6</v>
       </c>
       <c r="F36" s="2">
-        <v>24.6</v>
+        <v>36.3</v>
       </c>
       <c r="G36" s="2">
-        <v>36.3</v>
+        <v>36.7</v>
       </c>
       <c r="H36" s="2">
-        <v>36.7</v>
+        <v>49.6</v>
       </c>
       <c r="I36" s="2">
-        <v>49.6</v>
+        <v>53.2</v>
       </c>
       <c r="J36" s="2">
-        <v>53.2</v>
+        <v>81.6</v>
       </c>
       <c r="K36" s="2">
-        <v>81.6</v>
+        <v>99.8</v>
       </c>
       <c r="L36" s="2">
-        <v>99.8</v>
+        <v>106.2</v>
       </c>
       <c r="M36" s="2">
-        <v>106.2</v>
+        <v>11.7</v>
       </c>
       <c r="N36" s="2">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="O36" s="2">
-        <v>13.3</v>
+        <v>25.0</v>
       </c>
       <c r="P36" s="2">
-        <v>25.0</v>
+        <v>0.4</v>
       </c>
       <c r="Q36" s="2">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="R36" s="2">
-        <v>3.6</v>
+        <v>28.4</v>
       </c>
       <c r="S36" s="2">
-        <v>28.4</v>
+        <v>6.4</v>
       </c>
       <c r="T36" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="U36" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2713,54 +2600,51 @@
         <v>0.0</v>
       </c>
       <c r="E37" s="2">
-        <v>1.0</v>
+        <v>24.7</v>
       </c>
       <c r="F37" s="2">
-        <v>24.7</v>
+        <v>37.1</v>
       </c>
       <c r="G37" s="2">
         <v>37.1</v>
       </c>
       <c r="H37" s="2">
-        <v>37.1</v>
+        <v>49.1</v>
       </c>
       <c r="I37" s="2">
-        <v>49.1</v>
+        <v>50.1</v>
       </c>
       <c r="J37" s="2">
-        <v>50.1</v>
+        <v>113.9</v>
       </c>
       <c r="K37" s="2">
-        <v>113.9</v>
+        <v>120.0</v>
       </c>
       <c r="L37" s="2">
-        <v>120.0</v>
+        <v>134.5</v>
       </c>
       <c r="M37" s="2">
-        <v>134.5</v>
+        <v>12.4</v>
       </c>
       <c r="N37" s="2">
-        <v>12.4</v>
+        <v>12.0</v>
       </c>
       <c r="O37" s="2">
-        <v>12.0</v>
+        <v>24.4</v>
       </c>
       <c r="P37" s="2">
-        <v>24.4</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R37" s="2">
-        <v>1.0</v>
+        <v>63.8</v>
       </c>
       <c r="S37" s="2">
-        <v>63.8</v>
+        <v>14.5</v>
       </c>
       <c r="T37" s="2">
-        <v>14.5</v>
-      </c>
-      <c r="U37" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2778,54 +2662,51 @@
         <v>3.0</v>
       </c>
       <c r="E38" s="2">
-        <v>1.0</v>
+        <v>23.8</v>
       </c>
       <c r="F38" s="2">
-        <v>23.8</v>
+        <v>33.8</v>
       </c>
       <c r="G38" s="2">
-        <v>33.8</v>
+        <v>34.3</v>
       </c>
       <c r="H38" s="2">
-        <v>34.3</v>
+        <v>44.6</v>
       </c>
       <c r="I38" s="2">
-        <v>44.6</v>
+        <v>46.0</v>
       </c>
       <c r="J38" s="2">
-        <v>46.0</v>
+        <v>96.8</v>
       </c>
       <c r="K38" s="2">
-        <v>96.8</v>
+        <v>102.7</v>
       </c>
       <c r="L38" s="2">
-        <v>102.7</v>
+        <v>112.5</v>
       </c>
       <c r="M38" s="2">
-        <v>112.5</v>
+        <v>10.0</v>
       </c>
       <c r="N38" s="2">
-        <v>10.0</v>
+        <v>10.8</v>
       </c>
       <c r="O38" s="2">
-        <v>10.8</v>
+        <v>20.8</v>
       </c>
       <c r="P38" s="2">
-        <v>20.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q38" s="2">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="R38" s="2">
-        <v>1.4</v>
+        <v>50.8</v>
       </c>
       <c r="S38" s="2">
-        <v>50.8</v>
+        <v>9.8</v>
       </c>
       <c r="T38" s="2">
-        <v>9.8</v>
-      </c>
-      <c r="U38" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2843,54 +2724,51 @@
         <v>8.6</v>
       </c>
       <c r="E39" s="2">
-        <v>2.0</v>
+        <v>22.6</v>
       </c>
       <c r="F39" s="2">
-        <v>22.6</v>
+        <v>33.0</v>
       </c>
       <c r="G39" s="2">
-        <v>33.0</v>
+        <v>34.5</v>
       </c>
       <c r="H39" s="2">
-        <v>34.5</v>
+        <v>43.2</v>
       </c>
       <c r="I39" s="2">
-        <v>43.2</v>
+        <v>47.6</v>
       </c>
       <c r="J39" s="2">
-        <v>47.6</v>
+        <v>88.5</v>
       </c>
       <c r="K39" s="2">
-        <v>88.5</v>
+        <v>96.1</v>
       </c>
       <c r="L39" s="2">
-        <v>96.1</v>
+        <v>102.5</v>
       </c>
       <c r="M39" s="2">
-        <v>102.5</v>
+        <v>10.4</v>
       </c>
       <c r="N39" s="2">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="O39" s="2">
-        <v>10.2</v>
+        <v>20.6</v>
       </c>
       <c r="P39" s="2">
-        <v>20.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q39" s="2">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="R39" s="2">
-        <v>4.4</v>
+        <v>40.9</v>
       </c>
       <c r="S39" s="2">
-        <v>40.9</v>
+        <v>6.4</v>
       </c>
       <c r="T39" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="U39" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2908,54 +2786,51 @@
         <v>6.1</v>
       </c>
       <c r="E40" s="2">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="F40" s="2">
-        <v>23.0</v>
+        <v>33.4</v>
       </c>
       <c r="G40" s="2">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="H40" s="2">
-        <v>33.6</v>
+        <v>48.8</v>
       </c>
       <c r="I40" s="2">
-        <v>48.8</v>
+        <v>49.6</v>
       </c>
       <c r="J40" s="2">
-        <v>49.6</v>
+        <v>86.3</v>
       </c>
       <c r="K40" s="2">
-        <v>86.3</v>
+        <v>94.1</v>
       </c>
       <c r="L40" s="2">
-        <v>94.1</v>
+        <v>106.5</v>
       </c>
       <c r="M40" s="2">
-        <v>106.5</v>
+        <v>10.4</v>
       </c>
       <c r="N40" s="2">
-        <v>10.4</v>
+        <v>15.4</v>
       </c>
       <c r="O40" s="2">
-        <v>15.4</v>
+        <v>25.8</v>
       </c>
       <c r="P40" s="2">
-        <v>25.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q40" s="2">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="R40" s="2">
-        <v>0.8</v>
+        <v>36.7</v>
       </c>
       <c r="S40" s="2">
-        <v>36.7</v>
+        <v>12.4</v>
       </c>
       <c r="T40" s="2">
-        <v>12.4</v>
-      </c>
-      <c r="U40" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2973,54 +2848,51 @@
         <v>3.4</v>
       </c>
       <c r="E41" s="2">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F41" s="2">
-        <v>26.0</v>
+        <v>37.4</v>
       </c>
       <c r="G41" s="2">
         <v>37.4</v>
       </c>
       <c r="H41" s="2">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="I41" s="2">
-        <v>37.5</v>
+        <v>59.5</v>
       </c>
       <c r="J41" s="2">
-        <v>59.5</v>
+        <v>85.6</v>
       </c>
       <c r="K41" s="2">
-        <v>85.6</v>
+        <v>101.4</v>
       </c>
       <c r="L41" s="2">
-        <v>101.4</v>
+        <v>112.3</v>
       </c>
       <c r="M41" s="2">
-        <v>112.3</v>
+        <v>11.4</v>
       </c>
       <c r="N41" s="2">
-        <v>11.4</v>
+        <v>0.1</v>
       </c>
       <c r="O41" s="2">
-        <v>0.1</v>
+        <v>11.5</v>
       </c>
       <c r="P41" s="2">
-        <v>11.5</v>
+        <v>0.0</v>
       </c>
       <c r="Q41" s="2">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="R41" s="2">
-        <v>22.0</v>
+        <v>26.1</v>
       </c>
       <c r="S41" s="2">
-        <v>26.1</v>
+        <v>10.9</v>
       </c>
       <c r="T41" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="U41" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3038,54 +2910,51 @@
         <v>4.3</v>
       </c>
       <c r="E42" s="2">
-        <v>0.0</v>
+        <v>26.4</v>
       </c>
       <c r="F42" s="2">
-        <v>26.4</v>
+        <v>28.5</v>
       </c>
       <c r="G42" s="2">
-        <v>28.5</v>
+        <v>38.1</v>
       </c>
       <c r="H42" s="2">
-        <v>38.1</v>
+        <v>39.1</v>
       </c>
       <c r="I42" s="2">
-        <v>39.1</v>
+        <v>55.0</v>
       </c>
       <c r="J42" s="2">
-        <v>55.0</v>
+        <v>91.4</v>
       </c>
       <c r="K42" s="2">
-        <v>91.4</v>
+        <v>98.6</v>
       </c>
       <c r="L42" s="2">
-        <v>98.6</v>
+        <v>114.5</v>
       </c>
       <c r="M42" s="2">
-        <v>114.5</v>
+        <v>2.1</v>
       </c>
       <c r="N42" s="2">
-        <v>2.1</v>
+        <v>10.6</v>
       </c>
       <c r="O42" s="2">
-        <v>10.6</v>
+        <v>12.7</v>
       </c>
       <c r="P42" s="2">
-        <v>12.7</v>
+        <v>9.6</v>
       </c>
       <c r="Q42" s="2">
-        <v>9.6</v>
+        <v>15.9</v>
       </c>
       <c r="R42" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="S42" s="2">
         <v>15.9</v>
       </c>
-      <c r="S42" s="2">
-        <v>36.4</v>
-      </c>
       <c r="T42" s="2">
-        <v>15.9</v>
-      </c>
-      <c r="U42" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3103,54 +2972,51 @@
         <v>3.1</v>
       </c>
       <c r="E43" s="2">
-        <v>1.0</v>
+        <v>25.6</v>
       </c>
       <c r="F43" s="2">
-        <v>25.6</v>
+        <v>37.6</v>
       </c>
       <c r="G43" s="2">
         <v>37.6</v>
       </c>
       <c r="H43" s="2">
-        <v>37.6</v>
+        <v>51.5</v>
       </c>
       <c r="I43" s="2">
-        <v>51.5</v>
+        <v>58.0</v>
       </c>
       <c r="J43" s="2">
-        <v>58.0</v>
+        <v>106.1</v>
       </c>
       <c r="K43" s="2">
-        <v>106.1</v>
+        <v>118.5</v>
       </c>
       <c r="L43" s="2">
-        <v>118.5</v>
+        <v>129.0</v>
       </c>
       <c r="M43" s="2">
-        <v>129.0</v>
+        <v>12.0</v>
       </c>
       <c r="N43" s="2">
-        <v>12.0</v>
+        <v>13.9</v>
       </c>
       <c r="O43" s="2">
-        <v>13.9</v>
+        <v>25.9</v>
       </c>
       <c r="P43" s="2">
-        <v>25.9</v>
+        <v>0.0</v>
       </c>
       <c r="Q43" s="2">
-        <v>0.0</v>
+        <v>6.5</v>
       </c>
       <c r="R43" s="2">
-        <v>6.5</v>
+        <v>48.1</v>
       </c>
       <c r="S43" s="2">
-        <v>48.1</v>
+        <v>10.5</v>
       </c>
       <c r="T43" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="U43" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3168,54 +3034,51 @@
         <v>5.0</v>
       </c>
       <c r="E44" s="2">
-        <v>1.0</v>
+        <v>23.4</v>
       </c>
       <c r="F44" s="2">
-        <v>23.4</v>
+        <v>35.2</v>
       </c>
       <c r="G44" s="2">
-        <v>35.2</v>
+        <v>35.7</v>
       </c>
       <c r="H44" s="2">
-        <v>35.7</v>
+        <v>49.9</v>
       </c>
       <c r="I44" s="2">
-        <v>49.9</v>
+        <v>57.4</v>
       </c>
       <c r="J44" s="2">
-        <v>57.4</v>
+        <v>101.6</v>
       </c>
       <c r="K44" s="2">
-        <v>101.6</v>
+        <v>114.9</v>
       </c>
       <c r="L44" s="2">
-        <v>114.9</v>
+        <v>118.4</v>
       </c>
       <c r="M44" s="2">
-        <v>118.4</v>
+        <v>11.8</v>
       </c>
       <c r="N44" s="2">
-        <v>11.8</v>
+        <v>14.7</v>
       </c>
       <c r="O44" s="2">
-        <v>14.7</v>
+        <v>26.5</v>
       </c>
       <c r="P44" s="2">
-        <v>26.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q44" s="2">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="R44" s="2">
-        <v>7.5</v>
+        <v>44.2</v>
       </c>
       <c r="S44" s="2">
-        <v>44.2</v>
+        <v>3.5</v>
       </c>
       <c r="T44" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="U44" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3233,54 +3096,51 @@
         <v>4.6</v>
       </c>
       <c r="E45" s="2">
-        <v>2.0</v>
+        <v>23.5</v>
       </c>
       <c r="F45" s="2">
-        <v>23.5</v>
+        <v>33.6</v>
       </c>
       <c r="G45" s="2">
-        <v>33.6</v>
+        <v>35.2</v>
       </c>
       <c r="H45" s="2">
-        <v>35.2</v>
+        <v>49.7</v>
       </c>
       <c r="I45" s="2">
-        <v>49.7</v>
+        <v>61.9</v>
       </c>
       <c r="J45" s="2">
-        <v>61.9</v>
+        <v>88.1</v>
       </c>
       <c r="K45" s="2">
-        <v>88.1</v>
+        <v>94.4</v>
       </c>
       <c r="L45" s="2">
-        <v>94.4</v>
+        <v>107.0</v>
       </c>
       <c r="M45" s="2">
-        <v>107.0</v>
+        <v>10.1</v>
       </c>
       <c r="N45" s="2">
-        <v>10.1</v>
+        <v>16.1</v>
       </c>
       <c r="O45" s="2">
-        <v>16.1</v>
+        <v>26.2</v>
       </c>
       <c r="P45" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="R45" s="2">
         <v>26.2</v>
       </c>
-      <c r="Q45" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="R45" s="2">
-        <v>12.2</v>
-      </c>
       <c r="S45" s="2">
-        <v>26.2</v>
+        <v>12.6</v>
       </c>
       <c r="T45" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="U45" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3298,54 +3158,51 @@
         <v>5.4</v>
       </c>
       <c r="E46" s="2">
-        <v>2.0</v>
+        <v>25.5</v>
       </c>
       <c r="F46" s="2">
-        <v>25.5</v>
+        <v>37.9</v>
       </c>
       <c r="G46" s="2">
-        <v>37.9</v>
+        <v>38.5</v>
       </c>
       <c r="H46" s="2">
-        <v>38.5</v>
+        <v>53.0</v>
       </c>
       <c r="I46" s="2">
-        <v>53.0</v>
+        <v>56.9</v>
       </c>
       <c r="J46" s="2">
-        <v>56.9</v>
+        <v>98.0</v>
       </c>
       <c r="K46" s="2">
-        <v>98.0</v>
+        <v>109.7</v>
       </c>
       <c r="L46" s="2">
-        <v>109.7</v>
+        <v>114.1</v>
       </c>
       <c r="M46" s="2">
-        <v>114.1</v>
+        <v>12.4</v>
       </c>
       <c r="N46" s="2">
-        <v>12.4</v>
+        <v>15.1</v>
       </c>
       <c r="O46" s="2">
-        <v>15.1</v>
+        <v>27.5</v>
       </c>
       <c r="P46" s="2">
-        <v>27.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q46" s="2">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="R46" s="2">
-        <v>3.9</v>
+        <v>41.1</v>
       </c>
       <c r="S46" s="2">
-        <v>41.1</v>
+        <v>4.4</v>
       </c>
       <c r="T46" s="2">
-        <v>4.4</v>
-      </c>
-      <c r="U46" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3363,54 +3220,51 @@
         <v>4.4</v>
       </c>
       <c r="E47" s="2">
-        <v>2.0</v>
+        <v>24.7</v>
       </c>
       <c r="F47" s="2">
-        <v>24.7</v>
+        <v>37.0</v>
       </c>
       <c r="G47" s="2">
         <v>37.0</v>
       </c>
       <c r="H47" s="2">
-        <v>37.0</v>
+        <v>37.1</v>
       </c>
       <c r="I47" s="2">
-        <v>37.1</v>
+        <v>51.3</v>
       </c>
       <c r="J47" s="2">
-        <v>51.3</v>
+        <v>73.2</v>
       </c>
       <c r="K47" s="2">
-        <v>73.2</v>
+        <v>113.9</v>
       </c>
       <c r="L47" s="2">
-        <v>113.9</v>
+        <v>118.7</v>
       </c>
       <c r="M47" s="2">
-        <v>118.7</v>
+        <v>12.3</v>
       </c>
       <c r="N47" s="2">
-        <v>12.3</v>
+        <v>0.1</v>
       </c>
       <c r="O47" s="2">
-        <v>0.1</v>
+        <v>12.4</v>
       </c>
       <c r="P47" s="2">
-        <v>12.4</v>
+        <v>0.0</v>
       </c>
       <c r="Q47" s="2">
-        <v>0.0</v>
+        <v>14.2</v>
       </c>
       <c r="R47" s="2">
-        <v>14.2</v>
+        <v>21.9</v>
       </c>
       <c r="S47" s="2">
-        <v>21.9</v>
+        <v>4.8</v>
       </c>
       <c r="T47" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="U47" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3428,54 +3282,51 @@
         <v>5.8</v>
       </c>
       <c r="E48" s="2">
-        <v>2.0</v>
+        <v>23.5</v>
       </c>
       <c r="F48" s="2">
-        <v>23.5</v>
+        <v>36.6</v>
       </c>
       <c r="G48" s="2">
-        <v>36.6</v>
+        <v>37.5</v>
       </c>
       <c r="H48" s="2">
-        <v>37.5</v>
+        <v>49.6</v>
       </c>
       <c r="I48" s="2">
-        <v>49.6</v>
+        <v>57.6</v>
       </c>
       <c r="J48" s="2">
-        <v>57.6</v>
+        <v>89.7</v>
       </c>
       <c r="K48" s="2">
-        <v>89.7</v>
+        <v>107.4</v>
       </c>
       <c r="L48" s="2">
-        <v>107.4</v>
+        <v>113.0</v>
       </c>
       <c r="M48" s="2">
-        <v>113.0</v>
+        <v>13.1</v>
       </c>
       <c r="N48" s="2">
-        <v>13.1</v>
+        <v>13.0</v>
       </c>
       <c r="O48" s="2">
-        <v>13.0</v>
+        <v>26.1</v>
       </c>
       <c r="P48" s="2">
-        <v>26.1</v>
+        <v>0.9</v>
       </c>
       <c r="Q48" s="2">
-        <v>0.9</v>
+        <v>8.0</v>
       </c>
       <c r="R48" s="2">
-        <v>8.0</v>
+        <v>32.1</v>
       </c>
       <c r="S48" s="2">
-        <v>32.1</v>
+        <v>5.6</v>
       </c>
       <c r="T48" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="U48" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3493,54 +3344,51 @@
         <v>6.7</v>
       </c>
       <c r="E49" s="2">
-        <v>2.0</v>
+        <v>24.2</v>
       </c>
       <c r="F49" s="2">
-        <v>24.2</v>
+        <v>36.8</v>
       </c>
       <c r="G49" s="2">
-        <v>36.8</v>
+        <v>37.6</v>
       </c>
       <c r="H49" s="2">
-        <v>37.6</v>
+        <v>49.7</v>
       </c>
       <c r="I49" s="2">
-        <v>49.7</v>
+        <v>51.8</v>
       </c>
       <c r="J49" s="2">
-        <v>51.8</v>
+        <v>77.3</v>
       </c>
       <c r="K49" s="2">
-        <v>77.3</v>
+        <v>98.8</v>
       </c>
       <c r="L49" s="2">
-        <v>98.8</v>
+        <v>104.1</v>
       </c>
       <c r="M49" s="2">
-        <v>104.1</v>
+        <v>12.6</v>
       </c>
       <c r="N49" s="2">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="O49" s="2">
-        <v>12.9</v>
+        <v>25.5</v>
       </c>
       <c r="P49" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="R49" s="2">
         <v>25.5</v>
       </c>
-      <c r="Q49" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="R49" s="2">
-        <v>2.1</v>
-      </c>
       <c r="S49" s="2">
-        <v>25.5</v>
+        <v>5.3</v>
       </c>
       <c r="T49" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="U49" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3558,54 +3406,51 @@
         <v>3.5</v>
       </c>
       <c r="E50" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>38.3</v>
+      </c>
+      <c r="H50" s="2">
+        <v>39.1</v>
+      </c>
+      <c r="I50" s="2">
+        <v>56.1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>88.5</v>
+      </c>
+      <c r="K50" s="2">
+        <v>104.7</v>
+      </c>
+      <c r="L50" s="2">
+        <v>118.2</v>
+      </c>
+      <c r="M50" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="N50" s="2">
         <v>1.0</v>
       </c>
-      <c r="F50" s="2">
-        <v>25.2</v>
-      </c>
-      <c r="G50" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="H50" s="2">
-        <v>38.3</v>
-      </c>
-      <c r="I50" s="2">
-        <v>39.1</v>
-      </c>
-      <c r="J50" s="2">
-        <v>56.1</v>
-      </c>
-      <c r="K50" s="2">
-        <v>88.5</v>
-      </c>
-      <c r="L50" s="2">
-        <v>104.7</v>
-      </c>
-      <c r="M50" s="2">
-        <v>118.2</v>
-      </c>
-      <c r="N50" s="2">
-        <v>12.9</v>
-      </c>
       <c r="O50" s="2">
-        <v>1.0</v>
+        <v>13.9</v>
       </c>
       <c r="P50" s="2">
-        <v>13.9</v>
+        <v>0.2</v>
       </c>
       <c r="Q50" s="2">
-        <v>0.2</v>
+        <v>17.0</v>
       </c>
       <c r="R50" s="2">
-        <v>17.0</v>
+        <v>32.4</v>
       </c>
       <c r="S50" s="2">
-        <v>32.4</v>
+        <v>13.5</v>
       </c>
       <c r="T50" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="U50" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3623,54 +3468,51 @@
         <v>8.2</v>
       </c>
       <c r="E51" s="2">
-        <v>1.0</v>
+        <v>24.4</v>
       </c>
       <c r="F51" s="2">
-        <v>24.4</v>
+        <v>35.7</v>
       </c>
       <c r="G51" s="2">
-        <v>35.7</v>
+        <v>36.2</v>
       </c>
       <c r="H51" s="2">
-        <v>36.2</v>
+        <v>46.5</v>
       </c>
       <c r="I51" s="2">
-        <v>46.5</v>
+        <v>49.8</v>
       </c>
       <c r="J51" s="2">
-        <v>49.8</v>
+        <v>92.2</v>
       </c>
       <c r="K51" s="2">
-        <v>92.2</v>
+        <v>96.9</v>
       </c>
       <c r="L51" s="2">
-        <v>96.9</v>
+        <v>105.8</v>
       </c>
       <c r="M51" s="2">
-        <v>105.8</v>
+        <v>11.3</v>
       </c>
       <c r="N51" s="2">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="O51" s="2">
-        <v>10.8</v>
+        <v>22.1</v>
       </c>
       <c r="P51" s="2">
-        <v>22.1</v>
+        <v>0.5</v>
       </c>
       <c r="Q51" s="2">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="R51" s="2">
-        <v>3.3</v>
+        <v>42.4</v>
       </c>
       <c r="S51" s="2">
-        <v>42.4</v>
+        <v>8.9</v>
       </c>
       <c r="T51" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="U51" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3688,54 +3530,51 @@
         <v>6.1</v>
       </c>
       <c r="E52" s="2">
-        <v>1.0</v>
+        <v>25.3</v>
       </c>
       <c r="F52" s="2">
-        <v>25.3</v>
+        <v>35.0</v>
       </c>
       <c r="G52" s="2">
-        <v>35.0</v>
+        <v>35.3</v>
       </c>
       <c r="H52" s="2">
-        <v>35.3</v>
+        <v>36.5</v>
       </c>
       <c r="I52" s="2">
-        <v>36.5</v>
+        <v>47.4</v>
       </c>
       <c r="J52" s="2">
-        <v>47.4</v>
+        <v>86.7</v>
       </c>
       <c r="K52" s="2">
-        <v>86.7</v>
+        <v>96.2</v>
       </c>
       <c r="L52" s="2">
-        <v>96.2</v>
+        <v>104.0</v>
       </c>
       <c r="M52" s="2">
-        <v>104.0</v>
+        <v>9.7</v>
       </c>
       <c r="N52" s="2">
-        <v>9.7</v>
+        <v>1.5</v>
       </c>
       <c r="O52" s="2">
-        <v>1.5</v>
+        <v>11.2</v>
       </c>
       <c r="P52" s="2">
-        <v>11.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q52" s="2">
-        <v>0.3</v>
+        <v>10.9</v>
       </c>
       <c r="R52" s="2">
-        <v>10.9</v>
+        <v>39.3</v>
       </c>
       <c r="S52" s="2">
-        <v>39.3</v>
+        <v>7.8</v>
       </c>
       <c r="T52" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="U52" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3753,54 +3592,51 @@
         <v>4.2</v>
       </c>
       <c r="E53" s="2">
-        <v>0.0</v>
+        <v>25.8</v>
       </c>
       <c r="F53" s="2">
-        <v>25.8</v>
+        <v>36.8</v>
       </c>
       <c r="G53" s="2">
-        <v>36.8</v>
+        <v>37.0</v>
       </c>
       <c r="H53" s="2">
-        <v>37.0</v>
+        <v>37.8</v>
       </c>
       <c r="I53" s="2">
-        <v>37.8</v>
+        <v>52.4</v>
       </c>
       <c r="J53" s="2">
-        <v>52.4</v>
+        <v>91.6</v>
       </c>
       <c r="K53" s="2">
-        <v>91.6</v>
+        <v>98.4</v>
       </c>
       <c r="L53" s="2">
-        <v>98.4</v>
+        <v>108.6</v>
       </c>
       <c r="M53" s="2">
-        <v>108.6</v>
+        <v>11.0</v>
       </c>
       <c r="N53" s="2">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="O53" s="2">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="P53" s="2">
-        <v>12.0</v>
+        <v>0.2</v>
       </c>
       <c r="Q53" s="2">
-        <v>0.2</v>
+        <v>14.6</v>
       </c>
       <c r="R53" s="2">
-        <v>14.6</v>
+        <v>39.2</v>
       </c>
       <c r="S53" s="2">
-        <v>39.2</v>
+        <v>10.2</v>
       </c>
       <c r="T53" s="2">
-        <v>10.2</v>
-      </c>
-      <c r="U53" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3818,54 +3654,51 @@
         <v>3.3</v>
       </c>
       <c r="E54" s="2">
-        <v>2.0</v>
+        <v>27.8</v>
       </c>
       <c r="F54" s="2">
-        <v>27.8</v>
+        <v>39.1</v>
       </c>
       <c r="G54" s="2">
-        <v>39.1</v>
+        <v>40.7</v>
       </c>
       <c r="H54" s="2">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="I54" s="2">
-        <v>40.8</v>
+        <v>53.1</v>
       </c>
       <c r="J54" s="2">
-        <v>53.1</v>
+        <v>91.6</v>
       </c>
       <c r="K54" s="2">
-        <v>91.6</v>
+        <v>105.1</v>
       </c>
       <c r="L54" s="2">
-        <v>105.1</v>
+        <v>121.3</v>
       </c>
       <c r="M54" s="2">
-        <v>121.3</v>
+        <v>11.3</v>
       </c>
       <c r="N54" s="2">
-        <v>11.3</v>
+        <v>1.7</v>
       </c>
       <c r="O54" s="2">
-        <v>1.7</v>
+        <v>13.0</v>
       </c>
       <c r="P54" s="2">
-        <v>13.0</v>
+        <v>1.6</v>
       </c>
       <c r="Q54" s="2">
-        <v>1.6</v>
+        <v>12.3</v>
       </c>
       <c r="R54" s="2">
-        <v>12.3</v>
+        <v>38.5</v>
       </c>
       <c r="S54" s="2">
-        <v>38.5</v>
+        <v>16.2</v>
       </c>
       <c r="T54" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="U54" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3883,54 +3716,51 @@
         <v>8.0</v>
       </c>
       <c r="E55" s="2">
-        <v>0.0</v>
+        <v>20.4</v>
       </c>
       <c r="F55" s="2">
-        <v>20.4</v>
+        <v>23.0</v>
       </c>
       <c r="G55" s="2">
-        <v>23.0</v>
+        <v>31.2</v>
       </c>
       <c r="H55" s="2">
-        <v>31.2</v>
+        <v>33.2</v>
       </c>
       <c r="I55" s="2">
-        <v>33.2</v>
+        <v>45.7</v>
       </c>
       <c r="J55" s="2">
-        <v>45.7</v>
+        <v>79.3</v>
       </c>
       <c r="K55" s="2">
-        <v>79.3</v>
+        <v>88.4</v>
       </c>
       <c r="L55" s="2">
-        <v>88.4</v>
+        <v>95.8</v>
       </c>
       <c r="M55" s="2">
-        <v>95.8</v>
+        <v>2.6</v>
       </c>
       <c r="N55" s="2">
-        <v>2.6</v>
+        <v>10.2</v>
       </c>
       <c r="O55" s="2">
-        <v>10.2</v>
+        <v>12.8</v>
       </c>
       <c r="P55" s="2">
-        <v>12.8</v>
+        <v>8.2</v>
       </c>
       <c r="Q55" s="2">
-        <v>8.2</v>
+        <v>12.5</v>
       </c>
       <c r="R55" s="2">
-        <v>12.5</v>
+        <v>33.6</v>
       </c>
       <c r="S55" s="2">
-        <v>33.6</v>
+        <v>7.4</v>
       </c>
       <c r="T55" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="U55" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3948,54 +3778,51 @@
         <v>6.9</v>
       </c>
       <c r="E56" s="2">
-        <v>1.0</v>
+        <v>24.2</v>
       </c>
       <c r="F56" s="2">
-        <v>24.2</v>
+        <v>34.5</v>
       </c>
       <c r="G56" s="2">
-        <v>34.5</v>
+        <v>41.0</v>
       </c>
       <c r="H56" s="2">
-        <v>41.0</v>
+        <v>47.1</v>
       </c>
       <c r="I56" s="2">
-        <v>47.1</v>
+        <v>55.1</v>
       </c>
       <c r="J56" s="2">
-        <v>55.1</v>
+        <v>78.1</v>
       </c>
       <c r="K56" s="2">
-        <v>78.1</v>
+        <v>94.6</v>
       </c>
       <c r="L56" s="2">
-        <v>94.6</v>
+        <v>101.1</v>
       </c>
       <c r="M56" s="2">
-        <v>101.1</v>
+        <v>10.3</v>
       </c>
       <c r="N56" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="O56" s="2">
-        <v>12.6</v>
+        <v>22.9</v>
       </c>
       <c r="P56" s="2">
-        <v>22.9</v>
+        <v>6.5</v>
       </c>
       <c r="Q56" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="R56" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="S56" s="2">
         <v>6.5</v>
       </c>
-      <c r="R56" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="S56" s="2">
-        <v>23.0</v>
-      </c>
       <c r="T56" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="U56" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4013,54 +3840,51 @@
         <v>5.8</v>
       </c>
       <c r="E57" s="2">
-        <v>0.0</v>
+        <v>21.9</v>
       </c>
       <c r="F57" s="2">
-        <v>21.9</v>
+        <v>23.7</v>
       </c>
       <c r="G57" s="2">
-        <v>23.7</v>
+        <v>31.2</v>
       </c>
       <c r="H57" s="2">
-        <v>31.2</v>
+        <v>32.4</v>
       </c>
       <c r="I57" s="2">
-        <v>32.4</v>
+        <v>49.0</v>
       </c>
       <c r="J57" s="2">
-        <v>49.0</v>
+        <v>82.4</v>
       </c>
       <c r="K57" s="2">
-        <v>82.4</v>
+        <v>89.7</v>
       </c>
       <c r="L57" s="2">
-        <v>89.7</v>
+        <v>99.5</v>
       </c>
       <c r="M57" s="2">
-        <v>99.5</v>
+        <v>1.8</v>
       </c>
       <c r="N57" s="2">
-        <v>1.8</v>
+        <v>8.7</v>
       </c>
       <c r="O57" s="2">
-        <v>8.7</v>
+        <v>10.5</v>
       </c>
       <c r="P57" s="2">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q57" s="2">
-        <v>7.5</v>
+        <v>16.6</v>
       </c>
       <c r="R57" s="2">
-        <v>16.6</v>
+        <v>33.4</v>
       </c>
       <c r="S57" s="2">
-        <v>33.4</v>
+        <v>9.8</v>
       </c>
       <c r="T57" s="2">
-        <v>9.8</v>
-      </c>
-      <c r="U57" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4078,54 +3902,51 @@
         <v>4.3</v>
       </c>
       <c r="E58" s="2">
-        <v>0.0</v>
+        <v>19.6</v>
       </c>
       <c r="F58" s="2">
-        <v>19.6</v>
+        <v>22.1</v>
       </c>
       <c r="G58" s="2">
-        <v>22.1</v>
+        <v>31.3</v>
       </c>
       <c r="H58" s="2">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="I58" s="2">
-        <v>31.6</v>
+        <v>50.0</v>
       </c>
       <c r="J58" s="2">
-        <v>50.0</v>
+        <v>84.9</v>
       </c>
       <c r="K58" s="2">
-        <v>84.9</v>
+        <v>97.4</v>
       </c>
       <c r="L58" s="2">
-        <v>97.4</v>
+        <v>102.5</v>
       </c>
       <c r="M58" s="2">
-        <v>102.5</v>
+        <v>2.5</v>
       </c>
       <c r="N58" s="2">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="O58" s="2">
-        <v>9.5</v>
+        <v>12.0</v>
       </c>
       <c r="P58" s="2">
-        <v>12.0</v>
+        <v>9.2</v>
       </c>
       <c r="Q58" s="2">
-        <v>9.2</v>
+        <v>18.4</v>
       </c>
       <c r="R58" s="2">
-        <v>18.4</v>
+        <v>34.9</v>
       </c>
       <c r="S58" s="2">
-        <v>34.9</v>
+        <v>5.1</v>
       </c>
       <c r="T58" s="2">
-        <v>5.1</v>
-      </c>
-      <c r="U58" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4143,54 +3964,51 @@
         <v>8.8</v>
       </c>
       <c r="E59" s="2">
-        <v>1.0</v>
+        <v>20.8</v>
       </c>
       <c r="F59" s="2">
-        <v>20.8</v>
+        <v>30.6</v>
       </c>
       <c r="G59" s="2">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="H59" s="2">
-        <v>30.8</v>
+        <v>32.7</v>
       </c>
       <c r="I59" s="2">
-        <v>32.7</v>
+        <v>44.6</v>
       </c>
       <c r="J59" s="2">
-        <v>44.6</v>
+        <v>80.3</v>
       </c>
       <c r="K59" s="2">
-        <v>80.3</v>
+        <v>87.2</v>
       </c>
       <c r="L59" s="2">
-        <v>87.2</v>
+        <v>95.2</v>
       </c>
       <c r="M59" s="2">
-        <v>95.2</v>
+        <v>9.8</v>
       </c>
       <c r="N59" s="2">
-        <v>9.8</v>
+        <v>2.1</v>
       </c>
       <c r="O59" s="2">
-        <v>2.1</v>
+        <v>11.9</v>
       </c>
       <c r="P59" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q59" s="2">
         <v>11.9</v>
       </c>
-      <c r="Q59" s="2">
-        <v>0.2</v>
-      </c>
       <c r="R59" s="2">
-        <v>11.9</v>
+        <v>35.7</v>
       </c>
       <c r="S59" s="2">
-        <v>35.7</v>
+        <v>8.0</v>
       </c>
       <c r="T59" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="U59" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4208,54 +4026,51 @@
         <v>5.6</v>
       </c>
       <c r="E60" s="2">
-        <v>1.0</v>
+        <v>21.9</v>
       </c>
       <c r="F60" s="2">
-        <v>21.9</v>
+        <v>32.1</v>
       </c>
       <c r="G60" s="2">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="H60" s="2">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="I60" s="2">
-        <v>32.7</v>
+        <v>56.7</v>
       </c>
       <c r="J60" s="2">
-        <v>56.7</v>
+        <v>71.5</v>
       </c>
       <c r="K60" s="2">
-        <v>71.5</v>
+        <v>88.2</v>
       </c>
       <c r="L60" s="2">
-        <v>88.2</v>
+        <v>94.3</v>
       </c>
       <c r="M60" s="2">
-        <v>94.3</v>
+        <v>10.2</v>
       </c>
       <c r="N60" s="2">
-        <v>10.2</v>
+        <v>0.6</v>
       </c>
       <c r="O60" s="2">
-        <v>0.6</v>
+        <v>10.8</v>
       </c>
       <c r="P60" s="2">
-        <v>10.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q60" s="2">
-        <v>0.4</v>
+        <v>24.0</v>
       </c>
       <c r="R60" s="2">
-        <v>24.0</v>
+        <v>14.8</v>
       </c>
       <c r="S60" s="2">
-        <v>14.8</v>
+        <v>6.1</v>
       </c>
       <c r="T60" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="U60" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4273,54 +4088,51 @@
         <v>9.2</v>
       </c>
       <c r="E61" s="2">
-        <v>2.0</v>
+        <v>24.6</v>
       </c>
       <c r="F61" s="2">
-        <v>24.6</v>
+        <v>34.6</v>
       </c>
       <c r="G61" s="2">
         <v>34.6</v>
       </c>
       <c r="H61" s="2">
-        <v>34.6</v>
+        <v>46.5</v>
       </c>
       <c r="I61" s="2">
-        <v>46.5</v>
+        <v>58.8</v>
       </c>
       <c r="J61" s="2">
-        <v>58.8</v>
+        <v>82.4</v>
       </c>
       <c r="K61" s="2">
-        <v>82.4</v>
+        <v>87.8</v>
       </c>
       <c r="L61" s="2">
-        <v>87.8</v>
+        <v>95.4</v>
       </c>
       <c r="M61" s="2">
-        <v>95.4</v>
+        <v>10.0</v>
       </c>
       <c r="N61" s="2">
-        <v>10.0</v>
+        <v>11.9</v>
       </c>
       <c r="O61" s="2">
-        <v>11.9</v>
+        <v>21.9</v>
       </c>
       <c r="P61" s="2">
-        <v>21.9</v>
+        <v>0.0</v>
       </c>
       <c r="Q61" s="2">
-        <v>0.0</v>
+        <v>12.3</v>
       </c>
       <c r="R61" s="2">
-        <v>12.3</v>
+        <v>23.6</v>
       </c>
       <c r="S61" s="2">
-        <v>23.6</v>
+        <v>7.6</v>
       </c>
       <c r="T61" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="U61" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4338,54 +4150,51 @@
         <v>8.4</v>
       </c>
       <c r="E62" s="2">
-        <v>1.0</v>
+        <v>26.8</v>
       </c>
       <c r="F62" s="2">
-        <v>26.8</v>
+        <v>38.6</v>
       </c>
       <c r="G62" s="2">
-        <v>38.6</v>
+        <v>39.0</v>
       </c>
       <c r="H62" s="2">
-        <v>39.0</v>
+        <v>51.1</v>
       </c>
       <c r="I62" s="2">
-        <v>51.1</v>
+        <v>53.3</v>
       </c>
       <c r="J62" s="2">
-        <v>53.3</v>
+        <v>91.7</v>
       </c>
       <c r="K62" s="2">
-        <v>91.7</v>
+        <v>97.0</v>
       </c>
       <c r="L62" s="2">
-        <v>97.0</v>
+        <v>102.9</v>
       </c>
       <c r="M62" s="2">
-        <v>102.9</v>
+        <v>11.8</v>
       </c>
       <c r="N62" s="2">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="O62" s="2">
-        <v>12.5</v>
+        <v>24.3</v>
       </c>
       <c r="P62" s="2">
-        <v>24.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q62" s="2">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="R62" s="2">
-        <v>2.2</v>
+        <v>38.4</v>
       </c>
       <c r="S62" s="2">
-        <v>38.4</v>
+        <v>5.9</v>
       </c>
       <c r="T62" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="U62" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4403,54 +4212,51 @@
         <v>5.8</v>
       </c>
       <c r="E63" s="2">
-        <v>1.0</v>
+        <v>21.2</v>
       </c>
       <c r="F63" s="2">
-        <v>21.2</v>
+        <v>31.4</v>
       </c>
       <c r="G63" s="2">
         <v>31.4</v>
       </c>
       <c r="H63" s="2">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="I63" s="2">
-        <v>31.6</v>
+        <v>45.9</v>
       </c>
       <c r="J63" s="2">
-        <v>45.9</v>
+        <v>86.6</v>
       </c>
       <c r="K63" s="2">
-        <v>86.6</v>
+        <v>96.8</v>
       </c>
       <c r="L63" s="2">
-        <v>96.8</v>
+        <v>105.0</v>
       </c>
       <c r="M63" s="2">
-        <v>105.0</v>
+        <v>10.2</v>
       </c>
       <c r="N63" s="2">
-        <v>10.2</v>
+        <v>0.2</v>
       </c>
       <c r="O63" s="2">
-        <v>0.2</v>
+        <v>10.4</v>
       </c>
       <c r="P63" s="2">
-        <v>10.4</v>
+        <v>0.0</v>
       </c>
       <c r="Q63" s="2">
-        <v>0.0</v>
+        <v>14.3</v>
       </c>
       <c r="R63" s="2">
-        <v>14.3</v>
+        <v>40.7</v>
       </c>
       <c r="S63" s="2">
-        <v>40.7</v>
+        <v>8.2</v>
       </c>
       <c r="T63" s="2">
-        <v>8.2</v>
-      </c>
-      <c r="U63" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4468,54 +4274,51 @@
         <v>3.6</v>
       </c>
       <c r="E64" s="2">
-        <v>1.0</v>
+        <v>31.2</v>
       </c>
       <c r="F64" s="2">
-        <v>31.2</v>
+        <v>42.4</v>
       </c>
       <c r="G64" s="2">
-        <v>42.4</v>
+        <v>42.8</v>
       </c>
       <c r="H64" s="2">
-        <v>42.8</v>
+        <v>60.0</v>
       </c>
       <c r="I64" s="2">
-        <v>60.0</v>
+        <v>84.0</v>
       </c>
       <c r="J64" s="2">
-        <v>84.0</v>
+        <v>101.6</v>
       </c>
       <c r="K64" s="2">
-        <v>101.6</v>
+        <v>108.4</v>
       </c>
       <c r="L64" s="2">
-        <v>108.4</v>
+        <v>112.6</v>
       </c>
       <c r="M64" s="2">
-        <v>112.6</v>
+        <v>11.2</v>
       </c>
       <c r="N64" s="2">
-        <v>11.2</v>
+        <v>17.6</v>
       </c>
       <c r="O64" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="R64" s="2">
         <v>17.6</v>
       </c>
-      <c r="P64" s="2">
-        <v>28.8</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="R64" s="2">
-        <v>24.0</v>
-      </c>
       <c r="S64" s="2">
-        <v>17.6</v>
+        <v>4.2</v>
       </c>
       <c r="T64" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="U64" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4533,54 +4336,51 @@
         <v>5.6</v>
       </c>
       <c r="E65" s="2">
-        <v>1.0</v>
+        <v>23.5</v>
       </c>
       <c r="F65" s="2">
-        <v>23.5</v>
+        <v>37.4</v>
       </c>
       <c r="G65" s="2">
-        <v>37.4</v>
+        <v>38.1</v>
       </c>
       <c r="H65" s="2">
-        <v>38.1</v>
+        <v>49.7</v>
       </c>
       <c r="I65" s="2">
-        <v>49.7</v>
+        <v>53.4</v>
       </c>
       <c r="J65" s="2">
-        <v>53.4</v>
+        <v>85.5</v>
       </c>
       <c r="K65" s="2">
-        <v>85.5</v>
+        <v>104.3</v>
       </c>
       <c r="L65" s="2">
-        <v>104.3</v>
+        <v>113.8</v>
       </c>
       <c r="M65" s="2">
-        <v>113.8</v>
+        <v>13.9</v>
       </c>
       <c r="N65" s="2">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="O65" s="2">
-        <v>12.3</v>
+        <v>26.2</v>
       </c>
       <c r="P65" s="2">
-        <v>26.2</v>
+        <v>0.7</v>
       </c>
       <c r="Q65" s="2">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="R65" s="2">
-        <v>3.7</v>
+        <v>32.1</v>
       </c>
       <c r="S65" s="2">
-        <v>32.1</v>
+        <v>9.5</v>
       </c>
       <c r="T65" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="U65" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4598,54 +4398,51 @@
         <v>4.7</v>
       </c>
       <c r="E66" s="2">
-        <v>2.0</v>
+        <v>26.6</v>
       </c>
       <c r="F66" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="H66" s="2">
+        <v>53.2</v>
+      </c>
+      <c r="I66" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="J66" s="2">
+        <v>101.3</v>
+      </c>
+      <c r="K66" s="2">
+        <v>117.9</v>
+      </c>
+      <c r="L66" s="2">
+        <v>122.7</v>
+      </c>
+      <c r="M66" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="N66" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="O66" s="2">
         <v>26.6</v>
       </c>
-      <c r="G66" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>41.5</v>
-      </c>
-      <c r="I66" s="2">
-        <v>53.2</v>
-      </c>
-      <c r="J66" s="2">
-        <v>56.2</v>
-      </c>
-      <c r="K66" s="2">
-        <v>101.3</v>
-      </c>
-      <c r="L66" s="2">
-        <v>117.9</v>
-      </c>
-      <c r="M66" s="2">
-        <v>122.7</v>
-      </c>
-      <c r="N66" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="O66" s="2">
-        <v>12.2</v>
-      </c>
       <c r="P66" s="2">
-        <v>26.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q66" s="2">
-        <v>0.5</v>
+        <v>3.0</v>
       </c>
       <c r="R66" s="2">
-        <v>3.0</v>
+        <v>45.1</v>
       </c>
       <c r="S66" s="2">
-        <v>45.1</v>
+        <v>4.8</v>
       </c>
       <c r="T66" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="U66" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4663,54 +4460,51 @@
         <v>9.0</v>
       </c>
       <c r="E67" s="2">
-        <v>0.0</v>
+        <v>23.8</v>
       </c>
       <c r="F67" s="2">
-        <v>23.8</v>
+        <v>32.5</v>
       </c>
       <c r="G67" s="2">
-        <v>32.5</v>
+        <v>35.5</v>
       </c>
       <c r="H67" s="2">
-        <v>35.5</v>
+        <v>49.3</v>
       </c>
       <c r="I67" s="2">
-        <v>49.3</v>
+        <v>52.0</v>
       </c>
       <c r="J67" s="2">
-        <v>52.0</v>
+        <v>82.3</v>
       </c>
       <c r="K67" s="2">
-        <v>82.3</v>
+        <v>92.3</v>
       </c>
       <c r="L67" s="2">
-        <v>92.3</v>
+        <v>97.2</v>
       </c>
       <c r="M67" s="2">
-        <v>97.2</v>
+        <v>8.7</v>
       </c>
       <c r="N67" s="2">
-        <v>8.7</v>
+        <v>16.8</v>
       </c>
       <c r="O67" s="2">
-        <v>16.8</v>
+        <v>25.5</v>
       </c>
       <c r="P67" s="2">
-        <v>25.5</v>
+        <v>3.0</v>
       </c>
       <c r="Q67" s="2">
-        <v>3.0</v>
+        <v>2.7</v>
       </c>
       <c r="R67" s="2">
-        <v>2.7</v>
+        <v>30.3</v>
       </c>
       <c r="S67" s="2">
-        <v>30.3</v>
+        <v>4.9</v>
       </c>
       <c r="T67" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="U67" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4728,54 +4522,51 @@
         <v>5.0</v>
       </c>
       <c r="E68" s="2">
-        <v>0.0</v>
+        <v>26.9</v>
       </c>
       <c r="F68" s="2">
-        <v>26.9</v>
+        <v>39.6</v>
       </c>
       <c r="G68" s="2">
-        <v>39.6</v>
+        <v>40.6</v>
       </c>
       <c r="H68" s="2">
-        <v>40.6</v>
+        <v>53.9</v>
       </c>
       <c r="I68" s="2">
-        <v>53.9</v>
+        <v>64.9</v>
       </c>
       <c r="J68" s="2">
-        <v>64.9</v>
+        <v>105.8</v>
       </c>
       <c r="K68" s="2">
-        <v>105.8</v>
+        <v>110.7</v>
       </c>
       <c r="L68" s="2">
-        <v>110.7</v>
+        <v>119.1</v>
       </c>
       <c r="M68" s="2">
-        <v>119.1</v>
+        <v>12.7</v>
       </c>
       <c r="N68" s="2">
-        <v>12.7</v>
+        <v>14.3</v>
       </c>
       <c r="O68" s="2">
-        <v>14.3</v>
+        <v>27.0</v>
       </c>
       <c r="P68" s="2">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q68" s="2">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="R68" s="2">
-        <v>11.0</v>
+        <v>40.9</v>
       </c>
       <c r="S68" s="2">
-        <v>40.9</v>
+        <v>8.4</v>
       </c>
       <c r="T68" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="U68" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4793,54 +4584,51 @@
         <v>9.7</v>
       </c>
       <c r="E69" s="2">
-        <v>2.0</v>
+        <v>19.9</v>
       </c>
       <c r="F69" s="2">
-        <v>19.9</v>
+        <v>29.7</v>
       </c>
       <c r="G69" s="2">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="H69" s="2">
-        <v>29.8</v>
+        <v>40.6</v>
       </c>
       <c r="I69" s="2">
-        <v>40.6</v>
+        <v>46.1</v>
       </c>
       <c r="J69" s="2">
-        <v>46.1</v>
+        <v>71.8</v>
       </c>
       <c r="K69" s="2">
-        <v>71.8</v>
+        <v>81.0</v>
       </c>
       <c r="L69" s="2">
-        <v>81.0</v>
+        <v>86.1</v>
       </c>
       <c r="M69" s="2">
-        <v>86.1</v>
+        <v>9.8</v>
       </c>
       <c r="N69" s="2">
-        <v>9.8</v>
+        <v>10.9</v>
       </c>
       <c r="O69" s="2">
-        <v>10.9</v>
+        <v>20.7</v>
       </c>
       <c r="P69" s="2">
-        <v>20.7</v>
+        <v>0.1</v>
       </c>
       <c r="Q69" s="2">
-        <v>0.1</v>
+        <v>5.5</v>
       </c>
       <c r="R69" s="2">
-        <v>5.5</v>
+        <v>25.7</v>
       </c>
       <c r="S69" s="2">
-        <v>25.7</v>
+        <v>5.1</v>
       </c>
       <c r="T69" s="2">
-        <v>5.1</v>
-      </c>
-      <c r="U69" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4858,54 +4646,51 @@
         <v>5.7</v>
       </c>
       <c r="E70" s="2">
-        <v>1.0</v>
+        <v>21.2</v>
       </c>
       <c r="F70" s="2">
-        <v>21.2</v>
+        <v>32.0</v>
       </c>
       <c r="G70" s="2">
-        <v>32.0</v>
+        <v>32.6</v>
       </c>
       <c r="H70" s="2">
-        <v>32.6</v>
+        <v>43.5</v>
       </c>
       <c r="I70" s="2">
-        <v>43.5</v>
+        <v>45.8</v>
       </c>
       <c r="J70" s="2">
-        <v>45.8</v>
+        <v>91.2</v>
       </c>
       <c r="K70" s="2">
-        <v>91.2</v>
+        <v>98.7</v>
       </c>
       <c r="L70" s="2">
-        <v>98.7</v>
+        <v>112.6</v>
       </c>
       <c r="M70" s="2">
-        <v>112.6</v>
+        <v>10.8</v>
       </c>
       <c r="N70" s="2">
-        <v>10.8</v>
+        <v>11.5</v>
       </c>
       <c r="O70" s="2">
-        <v>11.5</v>
+        <v>22.3</v>
       </c>
       <c r="P70" s="2">
-        <v>22.3</v>
+        <v>0.6</v>
       </c>
       <c r="Q70" s="2">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="R70" s="2">
-        <v>2.3</v>
+        <v>45.4</v>
       </c>
       <c r="S70" s="2">
-        <v>45.4</v>
+        <v>13.9</v>
       </c>
       <c r="T70" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="U70" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4923,54 +4708,51 @@
         <v>4.9</v>
       </c>
       <c r="E71" s="2">
-        <v>0.0</v>
+        <v>27.3</v>
       </c>
       <c r="F71" s="2">
         <v>27.3</v>
       </c>
       <c r="G71" s="2">
-        <v>27.3</v>
+        <v>41.4</v>
       </c>
       <c r="H71" s="2">
-        <v>41.4</v>
+        <v>42.0</v>
       </c>
       <c r="I71" s="2">
-        <v>42.0</v>
+        <v>61.5</v>
       </c>
       <c r="J71" s="2">
-        <v>61.5</v>
+        <v>85.6</v>
       </c>
       <c r="K71" s="2">
-        <v>85.6</v>
+        <v>93.3</v>
       </c>
       <c r="L71" s="2">
-        <v>93.3</v>
+        <v>101.8</v>
       </c>
       <c r="M71" s="2">
-        <v>101.8</v>
+        <v>0.0</v>
       </c>
       <c r="N71" s="2">
-        <v>0.0</v>
+        <v>14.7</v>
       </c>
       <c r="O71" s="2">
         <v>14.7</v>
       </c>
       <c r="P71" s="2">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="Q71" s="2">
-        <v>14.1</v>
+        <v>19.5</v>
       </c>
       <c r="R71" s="2">
-        <v>19.5</v>
+        <v>24.1</v>
       </c>
       <c r="S71" s="2">
-        <v>24.1</v>
+        <v>8.5</v>
       </c>
       <c r="T71" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="U71" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -4988,54 +4770,51 @@
         <v>4.0</v>
       </c>
       <c r="E72" s="2">
-        <v>1.0</v>
+        <v>29.5</v>
       </c>
       <c r="F72" s="2">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="G72" s="2">
-        <v>29.7</v>
+        <v>40.0</v>
       </c>
       <c r="H72" s="2">
-        <v>40.0</v>
+        <v>40.1</v>
       </c>
       <c r="I72" s="2">
-        <v>40.1</v>
+        <v>53.6</v>
       </c>
       <c r="J72" s="2">
-        <v>53.6</v>
+        <v>87.0</v>
       </c>
       <c r="K72" s="2">
-        <v>87.0</v>
+        <v>101.1</v>
       </c>
       <c r="L72" s="2">
-        <v>101.1</v>
+        <v>111.5</v>
       </c>
       <c r="M72" s="2">
-        <v>111.5</v>
+        <v>0.2</v>
       </c>
       <c r="N72" s="2">
-        <v>0.2</v>
+        <v>10.4</v>
       </c>
       <c r="O72" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="P72" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="R72" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="S72" s="2">
         <v>10.4</v>
       </c>
-      <c r="P72" s="2">
-        <v>10.6</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>10.3</v>
-      </c>
-      <c r="R72" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="S72" s="2">
-        <v>33.4</v>
-      </c>
       <c r="T72" s="2">
-        <v>10.4</v>
-      </c>
-      <c r="U72" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5053,54 +4832,51 @@
         <v>5.8</v>
       </c>
       <c r="E73" s="2">
-        <v>2.0</v>
+        <v>27.2</v>
       </c>
       <c r="F73" s="2">
-        <v>27.2</v>
+        <v>39.8</v>
       </c>
       <c r="G73" s="2">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="H73" s="2">
-        <v>40.5</v>
+        <v>52.8</v>
       </c>
       <c r="I73" s="2">
-        <v>52.8</v>
+        <v>55.7</v>
       </c>
       <c r="J73" s="2">
-        <v>55.7</v>
+        <v>84.4</v>
       </c>
       <c r="K73" s="2">
-        <v>84.4</v>
+        <v>100.8</v>
       </c>
       <c r="L73" s="2">
-        <v>100.8</v>
+        <v>112.2</v>
       </c>
       <c r="M73" s="2">
-        <v>112.2</v>
+        <v>12.6</v>
       </c>
       <c r="N73" s="2">
-        <v>12.6</v>
+        <v>13.0</v>
       </c>
       <c r="O73" s="2">
-        <v>13.0</v>
+        <v>25.6</v>
       </c>
       <c r="P73" s="2">
-        <v>25.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q73" s="2">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="R73" s="2">
-        <v>2.9</v>
+        <v>28.7</v>
       </c>
       <c r="S73" s="2">
-        <v>28.7</v>
+        <v>11.4</v>
       </c>
       <c r="T73" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="U73" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5118,54 +4894,51 @@
         <v>5.4</v>
       </c>
       <c r="E74" s="2">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F74" s="2">
-        <v>26.0</v>
+        <v>37.3</v>
       </c>
       <c r="G74" s="2">
-        <v>37.3</v>
+        <v>39.7</v>
       </c>
       <c r="H74" s="2">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="I74" s="2">
-        <v>39.8</v>
+        <v>57.1</v>
       </c>
       <c r="J74" s="2">
-        <v>57.1</v>
+        <v>96.2</v>
       </c>
       <c r="K74" s="2">
-        <v>96.2</v>
+        <v>102.7</v>
       </c>
       <c r="L74" s="2">
-        <v>102.7</v>
+        <v>111.2</v>
       </c>
       <c r="M74" s="2">
-        <v>111.2</v>
+        <v>11.3</v>
       </c>
       <c r="N74" s="2">
-        <v>11.3</v>
+        <v>2.5</v>
       </c>
       <c r="O74" s="2">
-        <v>2.5</v>
+        <v>13.8</v>
       </c>
       <c r="P74" s="2">
-        <v>13.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q74" s="2">
-        <v>2.4</v>
+        <v>17.3</v>
       </c>
       <c r="R74" s="2">
-        <v>17.3</v>
+        <v>39.1</v>
       </c>
       <c r="S74" s="2">
-        <v>39.1</v>
+        <v>8.5</v>
       </c>
       <c r="T74" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="U74" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5183,54 +4956,51 @@
         <v>7.6</v>
       </c>
       <c r="E75" s="2">
-        <v>1.0</v>
+        <v>24.3</v>
       </c>
       <c r="F75" s="2">
-        <v>24.3</v>
+        <v>34.1</v>
       </c>
       <c r="G75" s="2">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="H75" s="2">
-        <v>34.3</v>
+        <v>44.5</v>
       </c>
       <c r="I75" s="2">
-        <v>44.5</v>
+        <v>46.0</v>
       </c>
       <c r="J75" s="2">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
       <c r="K75" s="2">
-        <v>84.0</v>
+        <v>90.7</v>
       </c>
       <c r="L75" s="2">
-        <v>90.7</v>
+        <v>96.5</v>
       </c>
       <c r="M75" s="2">
-        <v>96.5</v>
+        <v>9.8</v>
       </c>
       <c r="N75" s="2">
-        <v>9.8</v>
+        <v>10.4</v>
       </c>
       <c r="O75" s="2">
-        <v>10.4</v>
+        <v>20.2</v>
       </c>
       <c r="P75" s="2">
-        <v>20.2</v>
+        <v>0.2</v>
       </c>
       <c r="Q75" s="2">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="R75" s="2">
-        <v>1.5</v>
+        <v>38.0</v>
       </c>
       <c r="S75" s="2">
-        <v>38.0</v>
+        <v>5.8</v>
       </c>
       <c r="T75" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="U75" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5248,54 +5018,51 @@
         <v>3.7</v>
       </c>
       <c r="E76" s="2">
-        <v>2.0</v>
+        <v>26.4</v>
       </c>
       <c r="F76" s="2">
-        <v>26.4</v>
+        <v>38.8</v>
       </c>
       <c r="G76" s="2">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="H76" s="2">
-        <v>39.3</v>
+        <v>53.9</v>
       </c>
       <c r="I76" s="2">
-        <v>53.9</v>
+        <v>61.6</v>
       </c>
       <c r="J76" s="2">
-        <v>61.6</v>
+        <v>112.1</v>
       </c>
       <c r="K76" s="2">
-        <v>112.1</v>
+        <v>125.3</v>
       </c>
       <c r="L76" s="2">
-        <v>125.3</v>
+        <v>132.6</v>
       </c>
       <c r="M76" s="2">
-        <v>132.6</v>
+        <v>12.4</v>
       </c>
       <c r="N76" s="2">
-        <v>12.4</v>
+        <v>15.1</v>
       </c>
       <c r="O76" s="2">
-        <v>15.1</v>
+        <v>27.5</v>
       </c>
       <c r="P76" s="2">
-        <v>27.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q76" s="2">
-        <v>0.5</v>
+        <v>7.7</v>
       </c>
       <c r="R76" s="2">
-        <v>7.7</v>
+        <v>50.5</v>
       </c>
       <c r="S76" s="2">
-        <v>50.5</v>
+        <v>7.3</v>
       </c>
       <c r="T76" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="U76" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5313,54 +5080,51 @@
         <v>5.7</v>
       </c>
       <c r="E77" s="2">
-        <v>1.0</v>
+        <v>30.4</v>
       </c>
       <c r="F77" s="2">
-        <v>30.4</v>
+        <v>42.1</v>
       </c>
       <c r="G77" s="2">
-        <v>42.1</v>
+        <v>42.5</v>
       </c>
       <c r="H77" s="2">
-        <v>42.5</v>
+        <v>42.8</v>
       </c>
       <c r="I77" s="2">
-        <v>42.8</v>
+        <v>55.8</v>
       </c>
       <c r="J77" s="2">
-        <v>55.8</v>
+        <v>95.2</v>
       </c>
       <c r="K77" s="2">
-        <v>95.2</v>
+        <v>102.1</v>
       </c>
       <c r="L77" s="2">
-        <v>102.1</v>
+        <v>106.8</v>
       </c>
       <c r="M77" s="2">
-        <v>106.8</v>
+        <v>11.7</v>
       </c>
       <c r="N77" s="2">
-        <v>11.7</v>
+        <v>0.7</v>
       </c>
       <c r="O77" s="2">
-        <v>0.7</v>
+        <v>12.4</v>
       </c>
       <c r="P77" s="2">
-        <v>12.4</v>
+        <v>0.4</v>
       </c>
       <c r="Q77" s="2">
-        <v>0.4</v>
+        <v>13.0</v>
       </c>
       <c r="R77" s="2">
-        <v>13.0</v>
+        <v>39.4</v>
       </c>
       <c r="S77" s="2">
-        <v>39.4</v>
+        <v>4.7</v>
       </c>
       <c r="T77" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="U77" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5378,54 +5142,51 @@
         <v>7.6</v>
       </c>
       <c r="E78" s="2">
-        <v>2.0</v>
+        <v>26.7</v>
       </c>
       <c r="F78" s="2">
-        <v>26.7</v>
+        <v>38.8</v>
       </c>
       <c r="G78" s="2">
-        <v>38.8</v>
+        <v>39.0</v>
       </c>
       <c r="H78" s="2">
-        <v>39.0</v>
+        <v>50.7</v>
       </c>
       <c r="I78" s="2">
-        <v>50.7</v>
+        <v>53.8</v>
       </c>
       <c r="J78" s="2">
-        <v>53.8</v>
+        <v>89.2</v>
       </c>
       <c r="K78" s="2">
-        <v>89.2</v>
+        <v>106.6</v>
       </c>
       <c r="L78" s="2">
-        <v>106.6</v>
+        <v>110.1</v>
       </c>
       <c r="M78" s="2">
-        <v>110.1</v>
+        <v>12.1</v>
       </c>
       <c r="N78" s="2">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="O78" s="2">
-        <v>11.9</v>
+        <v>24.0</v>
       </c>
       <c r="P78" s="2">
-        <v>24.0</v>
+        <v>0.2</v>
       </c>
       <c r="Q78" s="2">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="R78" s="2">
-        <v>3.1</v>
+        <v>35.4</v>
       </c>
       <c r="S78" s="2">
-        <v>35.4</v>
+        <v>3.5</v>
       </c>
       <c r="T78" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="U78" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5443,54 +5204,51 @@
         <v>6.3</v>
       </c>
       <c r="E79" s="2">
-        <v>2.0</v>
+        <v>28.3</v>
       </c>
       <c r="F79" s="2">
-        <v>28.3</v>
+        <v>39.3</v>
       </c>
       <c r="G79" s="2">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="H79" s="2">
-        <v>39.5</v>
+        <v>51.0</v>
       </c>
       <c r="I79" s="2">
-        <v>51.0</v>
+        <v>51.9</v>
       </c>
       <c r="J79" s="2">
-        <v>51.9</v>
+        <v>93.5</v>
       </c>
       <c r="K79" s="2">
-        <v>93.5</v>
+        <v>98.3</v>
       </c>
       <c r="L79" s="2">
-        <v>98.3</v>
+        <v>107.6</v>
       </c>
       <c r="M79" s="2">
-        <v>107.6</v>
+        <v>11.0</v>
       </c>
       <c r="N79" s="2">
-        <v>11.0</v>
+        <v>11.7</v>
       </c>
       <c r="O79" s="2">
-        <v>11.7</v>
+        <v>22.7</v>
       </c>
       <c r="P79" s="2">
-        <v>22.7</v>
+        <v>0.2</v>
       </c>
       <c r="Q79" s="2">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="R79" s="2">
-        <v>0.9</v>
+        <v>41.6</v>
       </c>
       <c r="S79" s="2">
-        <v>41.6</v>
+        <v>9.3</v>
       </c>
       <c r="T79" s="2">
-        <v>9.3</v>
-      </c>
-      <c r="U79" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5508,54 +5266,51 @@
         <v>8.6</v>
       </c>
       <c r="E80" s="2">
-        <v>2.0</v>
+        <v>24.4</v>
       </c>
       <c r="F80" s="2">
-        <v>24.4</v>
+        <v>36.5</v>
       </c>
       <c r="G80" s="2">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="H80" s="2">
-        <v>36.7</v>
+        <v>48.7</v>
       </c>
       <c r="I80" s="2">
-        <v>48.7</v>
+        <v>49.8</v>
       </c>
       <c r="J80" s="2">
-        <v>49.8</v>
+        <v>91.3</v>
       </c>
       <c r="K80" s="2">
-        <v>91.3</v>
+        <v>96.9</v>
       </c>
       <c r="L80" s="2">
-        <v>96.9</v>
+        <v>102.1</v>
       </c>
       <c r="M80" s="2">
-        <v>102.1</v>
+        <v>12.1</v>
       </c>
       <c r="N80" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="O80" s="2">
-        <v>12.2</v>
+        <v>24.3</v>
       </c>
       <c r="P80" s="2">
-        <v>24.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q80" s="2">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="R80" s="2">
-        <v>1.1</v>
+        <v>41.5</v>
       </c>
       <c r="S80" s="2">
-        <v>41.5</v>
+        <v>5.2</v>
       </c>
       <c r="T80" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="U80" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5573,54 +5328,51 @@
         <v>8.0</v>
       </c>
       <c r="E81" s="2">
-        <v>2.0</v>
+        <v>24.6</v>
       </c>
       <c r="F81" s="2">
-        <v>24.6</v>
+        <v>36.3</v>
       </c>
       <c r="G81" s="2">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="H81" s="2">
-        <v>36.6</v>
+        <v>51.1</v>
       </c>
       <c r="I81" s="2">
-        <v>51.1</v>
+        <v>61.9</v>
       </c>
       <c r="J81" s="2">
-        <v>61.9</v>
+        <v>87.0</v>
       </c>
       <c r="K81" s="2">
-        <v>87.0</v>
+        <v>94.0</v>
       </c>
       <c r="L81" s="2">
-        <v>94.0</v>
+        <v>104.9</v>
       </c>
       <c r="M81" s="2">
-        <v>104.9</v>
+        <v>11.7</v>
       </c>
       <c r="N81" s="2">
-        <v>11.7</v>
+        <v>14.8</v>
       </c>
       <c r="O81" s="2">
-        <v>14.8</v>
+        <v>26.5</v>
       </c>
       <c r="P81" s="2">
-        <v>26.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q81" s="2">
-        <v>0.3</v>
+        <v>10.8</v>
       </c>
       <c r="R81" s="2">
-        <v>10.8</v>
+        <v>25.1</v>
       </c>
       <c r="S81" s="2">
-        <v>25.1</v>
+        <v>10.9</v>
       </c>
       <c r="T81" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="U81" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5638,54 +5390,51 @@
         <v>7.4</v>
       </c>
       <c r="E82" s="2">
-        <v>0.0</v>
+        <v>28.4</v>
       </c>
       <c r="F82" s="2">
-        <v>28.4</v>
+        <v>39.4</v>
       </c>
       <c r="G82" s="2">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="H82" s="2">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="I82" s="2">
-        <v>39.9</v>
+        <v>56.2</v>
       </c>
       <c r="J82" s="2">
-        <v>56.2</v>
+        <v>94.3</v>
       </c>
       <c r="K82" s="2">
-        <v>94.3</v>
+        <v>100.5</v>
       </c>
       <c r="L82" s="2">
-        <v>100.5</v>
+        <v>104.5</v>
       </c>
       <c r="M82" s="2">
-        <v>104.5</v>
+        <v>11.0</v>
       </c>
       <c r="N82" s="2">
-        <v>11.0</v>
+        <v>0.5</v>
       </c>
       <c r="O82" s="2">
-        <v>0.5</v>
+        <v>11.5</v>
       </c>
       <c r="P82" s="2">
-        <v>11.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q82" s="2">
-        <v>0.3</v>
+        <v>16.3</v>
       </c>
       <c r="R82" s="2">
-        <v>16.3</v>
+        <v>38.1</v>
       </c>
       <c r="S82" s="2">
-        <v>38.1</v>
+        <v>4.0</v>
       </c>
       <c r="T82" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U82" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5703,54 +5452,51 @@
         <v>5.1</v>
       </c>
       <c r="E83" s="2">
-        <v>2.0</v>
+        <v>26.8</v>
       </c>
       <c r="F83" s="2">
-        <v>26.8</v>
+        <v>36.8</v>
       </c>
       <c r="G83" s="2">
-        <v>36.8</v>
+        <v>37.8</v>
       </c>
       <c r="H83" s="2">
-        <v>37.8</v>
+        <v>45.7</v>
       </c>
       <c r="I83" s="2">
-        <v>45.7</v>
+        <v>59.7</v>
       </c>
       <c r="J83" s="2">
-        <v>59.7</v>
+        <v>96.8</v>
       </c>
       <c r="K83" s="2">
-        <v>96.8</v>
+        <v>101.8</v>
       </c>
       <c r="L83" s="2">
-        <v>101.8</v>
+        <v>119.1</v>
       </c>
       <c r="M83" s="2">
-        <v>119.1</v>
+        <v>10.0</v>
       </c>
       <c r="N83" s="2">
-        <v>10.0</v>
+        <v>8.9</v>
       </c>
       <c r="O83" s="2">
-        <v>8.9</v>
+        <v>18.9</v>
       </c>
       <c r="P83" s="2">
-        <v>18.9</v>
+        <v>1.0</v>
       </c>
       <c r="Q83" s="2">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="R83" s="2">
-        <v>14.0</v>
+        <v>37.1</v>
       </c>
       <c r="S83" s="2">
-        <v>37.1</v>
+        <v>17.3</v>
       </c>
       <c r="T83" s="2">
-        <v>17.3</v>
-      </c>
-      <c r="U83" s="2">
         <v>0.0</v>
       </c>
     </row>
